--- a/ms21_dataset_split.xlsx
+++ b/ms21_dataset_split.xlsx
@@ -7,11 +7,16 @@
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miacKpUqI2ehHqMn2xcV9YFSlNn8Q=="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="502">
   <si>
     <t>test</t>
   </si>
@@ -694,7 +699,7 @@
     <t>Skelpolu - Anomalous Weeping</t>
   </si>
   <si>
-    <t>Perpetual Escape - Into My Dreams</t>
+    <t>Hazael - Resistencia Para Un Nuevo Comenzar</t>
   </si>
   <si>
     <t>thelvnguage - Kings And Queens</t>
@@ -742,9 +747,6 @@
     <t>Turkuaz - Lookin' Tough Feelin' Good</t>
   </si>
   <si>
-    <t>Hazael - Resistencia Para Un Nuevo Comenzar</t>
-  </si>
-  <si>
     <t>Turkuaz - Tip Toe Through The Crypto</t>
   </si>
   <si>
@@ -817,9 +819,6 @@
     <t>Hollowstate - Gravediggers</t>
   </si>
   <si>
-    <t>Andrey Yaroshinsky &amp; The Gnessin Academy Chamber Orchestra - W.A. Mozart's Piano Concerto No.12 K414 (Allegro)</t>
-  </si>
-  <si>
     <t>Chris Coltraine - That's How I Got To Memphis</t>
   </si>
   <si>
@@ -1435,7 +1434,7 @@
     <t>Secretariat - Borderline</t>
   </si>
   <si>
-    <t>Alan Evans Trio - I'm Coming Home</t>
+    <t>Hazael - A Mi Lado</t>
   </si>
   <si>
     <t>Silona - Learning How To Fly</t>
@@ -1517,9 +1516,6 @@
   </si>
   <si>
     <t>Peter White - The Blues Is A Lady</t>
-  </si>
-  <si>
-    <t>Hazael - A Mi Lado</t>
   </si>
   <si>
     <t>Catfolkin - Sant Jordi v2.0</t>
@@ -1542,7 +1538,6 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1559,10 +1554,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1780,9 +1776,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="6" width="12.63"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1793,7 +1792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1804,7 +1803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1815,7 +1814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1826,7 +1825,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1837,7 +1836,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1848,7 +1847,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1859,7 +1858,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1870,7 +1869,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -1881,7 +1880,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -1892,7 +1891,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -1903,7 +1902,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -1914,7 +1913,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -1925,7 +1924,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -1936,7 +1935,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -1947,7 +1946,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
@@ -1958,7 +1957,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
@@ -1969,7 +1968,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
@@ -1980,7 +1979,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>54</v>
       </c>
@@ -1991,7 +1990,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
@@ -2002,7 +2001,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
@@ -2013,7 +2012,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -2024,7 +2023,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
@@ -2035,7 +2034,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>69</v>
       </c>
@@ -2046,7 +2045,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>72</v>
       </c>
@@ -2057,7 +2056,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>75</v>
       </c>
@@ -2068,7 +2067,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>78</v>
       </c>
@@ -2079,7 +2078,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>81</v>
       </c>
@@ -2090,7 +2089,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>84</v>
       </c>
@@ -2101,7 +2100,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>87</v>
       </c>
@@ -2112,7 +2111,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>90</v>
       </c>
@@ -2123,7 +2122,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>93</v>
       </c>
@@ -2131,7 +2130,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>95</v>
       </c>
@@ -2139,7 +2138,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>97</v>
       </c>
@@ -2147,7 +2146,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>99</v>
       </c>
@@ -2155,7 +2154,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>101</v>
       </c>
@@ -2163,7 +2162,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>103</v>
       </c>
@@ -2171,7 +2170,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>105</v>
       </c>
@@ -2179,7 +2178,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>107</v>
       </c>
@@ -2187,7 +2186,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>109</v>
       </c>
@@ -2195,7 +2194,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>111</v>
       </c>
@@ -2203,7 +2202,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>113</v>
       </c>
@@ -2211,7 +2210,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>115</v>
       </c>
@@ -2219,7 +2218,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>117</v>
       </c>
@@ -2227,7 +2226,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>119</v>
       </c>
@@ -2235,7 +2234,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>121</v>
       </c>
@@ -2243,7 +2242,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>123</v>
       </c>
@@ -2251,7 +2250,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>125</v>
       </c>
@@ -2259,7 +2258,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>127</v>
       </c>
@@ -2267,7 +2266,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>129</v>
       </c>
@@ -2275,7 +2274,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>131</v>
       </c>
@@ -2283,1866 +2282,2439 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="C52" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="C53" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="C54" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="C55" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="C56" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="C57" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="C58" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="C59" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="C60" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="C61" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="C62" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="C63" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="C64" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="C65" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="C66" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="C67" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="C68" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="C69" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="C70" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="C71" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="C72" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="C73" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="C74" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="C75" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="C76" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="C77" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="C78" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="C79" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="C80" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="C81" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="C82" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="C83" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="C84" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="C85" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="C86" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="C87" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="C88" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="C89" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="C90" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="C91" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="C92" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="C93" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="C94" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="C95" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="C96" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="C97" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="C98" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="C99" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="C100" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="C101" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="C102" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="C103" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="C104" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="C105" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" ht="15.75" customHeight="1">
       <c r="C106" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" ht="15.75" customHeight="1">
       <c r="C107" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="C108" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="C109" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="C110" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="C111" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" ht="15.75" customHeight="1">
       <c r="C112" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" ht="15.75" customHeight="1">
       <c r="C113" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="C114" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" ht="15.75" customHeight="1">
       <c r="C115" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="C116" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="C117" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="C118" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" ht="15.75" customHeight="1">
       <c r="C119" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="C120" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" ht="15.75" customHeight="1">
       <c r="C121" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="C122" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" ht="15.75" customHeight="1">
       <c r="C123" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" ht="15.75" customHeight="1">
       <c r="C124" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" ht="15.75" customHeight="1">
       <c r="C125" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" ht="15.75" customHeight="1">
       <c r="C126" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" ht="15.75" customHeight="1">
       <c r="C127" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" ht="15.75" customHeight="1">
       <c r="C128" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" ht="15.75" customHeight="1">
       <c r="C129" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" ht="15.75" customHeight="1">
       <c r="C130" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" ht="15.75" customHeight="1">
       <c r="C131" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" ht="15.75" customHeight="1">
       <c r="C132" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" ht="15.75" customHeight="1">
       <c r="C133" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" ht="15.75" customHeight="1">
       <c r="C134" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" ht="15.75" customHeight="1">
       <c r="C135" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" ht="15.75" customHeight="1">
       <c r="C136" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" ht="15.75" customHeight="1">
       <c r="C137" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" ht="15.75" customHeight="1">
       <c r="C138" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" ht="15.75" customHeight="1">
       <c r="C139" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" ht="15.75" customHeight="1">
       <c r="C140" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" ht="15.75" customHeight="1">
       <c r="C141" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" ht="15.75" customHeight="1">
       <c r="C142" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" ht="15.75" customHeight="1">
       <c r="C143" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" ht="15.75" customHeight="1">
       <c r="C144" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" ht="15.75" customHeight="1">
       <c r="C145" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="146">
-      <c r="C146" s="1" t="s">
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="C146" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" ht="15.75" customHeight="1">
       <c r="C147" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" ht="15.75" customHeight="1">
       <c r="C148" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" ht="15.75" customHeight="1">
       <c r="C149" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" ht="15.75" customHeight="1">
       <c r="C150" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" ht="15.75" customHeight="1">
       <c r="C151" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" ht="15.75" customHeight="1">
       <c r="C152" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" ht="15.75" customHeight="1">
       <c r="C153" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" ht="15.75" customHeight="1">
       <c r="C154" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" ht="15.75" customHeight="1">
       <c r="C155" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" ht="15.75" customHeight="1">
       <c r="C156" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" ht="15.75" customHeight="1">
       <c r="C157" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" ht="15.75" customHeight="1">
       <c r="C158" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" ht="15.75" customHeight="1">
       <c r="C159" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" ht="15.75" customHeight="1">
       <c r="C160" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" ht="15.75" customHeight="1">
       <c r="C161" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" ht="15.75" customHeight="1">
       <c r="C162" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="C163" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="163">
-      <c r="C163" s="1" t="s">
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="C164" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="164">
-      <c r="C164" s="1" t="s">
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="C165" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="165">
-      <c r="C165" s="1" t="s">
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="C166" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="166">
-      <c r="C166" s="1" t="s">
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="C167" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="167">
-      <c r="C167" s="1" t="s">
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="C168" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="168">
-      <c r="C168" s="1" t="s">
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="C169" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="169">
-      <c r="C169" s="1" t="s">
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="C170" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="170">
-      <c r="C170" s="1" t="s">
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="C171" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="171">
-      <c r="C171" s="1" t="s">
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="C172" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="172">
-      <c r="C172" s="1" t="s">
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="C173" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="173">
-      <c r="C173" s="1" t="s">
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="C174" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="174">
-      <c r="C174" s="1" t="s">
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="C175" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="175">
-      <c r="C175" s="1" t="s">
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="C176" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="176">
-      <c r="C176" s="1" t="s">
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="C177" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="177">
-      <c r="C177" s="1" t="s">
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="C178" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="178">
-      <c r="C178" s="1" t="s">
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="C179" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="179">
-      <c r="C179" s="1" t="s">
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="C180" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="180">
-      <c r="C180" s="1" t="s">
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="C181" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="181">
-      <c r="C181" s="1" t="s">
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="C182" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="182">
-      <c r="C182" s="1" t="s">
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="C183" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="183">
-      <c r="C183" s="1" t="s">
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="C184" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="184">
-      <c r="C184" s="1" t="s">
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="C185" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="185">
-      <c r="C185" s="1" t="s">
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="C186" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="186">
-      <c r="C186" s="1" t="s">
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="C187" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="187">
-      <c r="C187" s="1" t="s">
+    <row r="188" ht="15.75" customHeight="1">
+      <c r="C188" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="188">
-      <c r="C188" s="1" t="s">
+    <row r="189" ht="15.75" customHeight="1">
+      <c r="C189" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="189">
-      <c r="C189" s="1" t="s">
+    <row r="190" ht="15.75" customHeight="1">
+      <c r="C190" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="190">
-      <c r="C190" s="1" t="s">
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="C191" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="191">
-      <c r="C191" s="1" t="s">
+    <row r="192" ht="15.75" customHeight="1">
+      <c r="C192" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="192">
-      <c r="C192" s="1" t="s">
+    <row r="193" ht="15.75" customHeight="1">
+      <c r="C193" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="193">
-      <c r="C193" s="1" t="s">
+    <row r="194" ht="15.75" customHeight="1">
+      <c r="C194" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="194">
-      <c r="C194" s="1" t="s">
+    <row r="195" ht="15.75" customHeight="1">
+      <c r="C195" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="195">
-      <c r="C195" s="1" t="s">
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="C196" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="196">
-      <c r="C196" s="1" t="s">
+    <row r="197" ht="15.75" customHeight="1">
+      <c r="C197" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="197">
-      <c r="C197" s="1" t="s">
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="C198" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="198">
-      <c r="C198" s="1" t="s">
+    <row r="199" ht="15.75" customHeight="1">
+      <c r="C199" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="199">
-      <c r="C199" s="1" t="s">
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="C200" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="200">
-      <c r="C200" s="1" t="s">
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="C201" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="201">
-      <c r="C201" s="1" t="s">
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="C202" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="202">
-      <c r="C202" s="1" t="s">
+    <row r="203" ht="15.75" customHeight="1">
+      <c r="C203" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="203">
-      <c r="C203" s="1" t="s">
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="C204" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="204">
-      <c r="C204" s="1" t="s">
+    <row r="205" ht="15.75" customHeight="1">
+      <c r="C205" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="205">
-      <c r="C205" s="1" t="s">
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="C206" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="206">
-      <c r="C206" s="1" t="s">
+    <row r="207" ht="15.75" customHeight="1">
+      <c r="C207" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="207">
-      <c r="C207" s="1" t="s">
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="C208" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="208">
-      <c r="C208" s="1" t="s">
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="C209" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="209">
-      <c r="C209" s="1" t="s">
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="C210" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="210">
-      <c r="C210" s="1" t="s">
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="C211" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="211">
-      <c r="C211" s="1" t="s">
+    <row r="212" ht="15.75" customHeight="1">
+      <c r="C212" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="212">
-      <c r="C212" s="1" t="s">
+    <row r="213" ht="15.75" customHeight="1">
+      <c r="C213" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="213">
-      <c r="C213" s="1" t="s">
+    <row r="214" ht="15.75" customHeight="1">
+      <c r="C214" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="214">
-      <c r="C214" s="1" t="s">
+    <row r="215" ht="15.75" customHeight="1">
+      <c r="C215" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="215">
-      <c r="C215" s="1" t="s">
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="C216" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="216">
-      <c r="C216" s="1" t="s">
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="C217" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="217">
-      <c r="C217" s="1" t="s">
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="C218" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="218">
-      <c r="C218" s="1" t="s">
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="C219" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="219">
-      <c r="C219" s="1" t="s">
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="C220" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="220">
-      <c r="C220" s="1" t="s">
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="C221" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="221">
-      <c r="C221" s="1" t="s">
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="C222" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="222">
-      <c r="C222" s="1" t="s">
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="C223" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="223">
-      <c r="C223" s="1" t="s">
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="C224" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="224">
-      <c r="C224" s="1" t="s">
+    <row r="225" ht="15.75" customHeight="1">
+      <c r="C225" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="225">
-      <c r="C225" s="1" t="s">
+    <row r="226" ht="15.75" customHeight="1">
+      <c r="C226" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="226">
-      <c r="C226" s="1" t="s">
+    <row r="227" ht="15.75" customHeight="1">
+      <c r="C227" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="227">
-      <c r="C227" s="1" t="s">
+    <row r="228" ht="15.75" customHeight="1">
+      <c r="C228" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="228">
-      <c r="C228" s="1" t="s">
+    <row r="229" ht="15.75" customHeight="1">
+      <c r="C229" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="229">
-      <c r="C229" s="1" t="s">
+    <row r="230" ht="15.75" customHeight="1">
+      <c r="C230" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="230">
-      <c r="C230" s="1" t="s">
+    <row r="231" ht="15.75" customHeight="1">
+      <c r="C231" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="231">
-      <c r="C231" s="1" t="s">
+    <row r="232" ht="15.75" customHeight="1">
+      <c r="C232" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="232">
-      <c r="C232" s="1" t="s">
+    <row r="233" ht="15.75" customHeight="1">
+      <c r="C233" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="233">
-      <c r="C233" s="1" t="s">
+    <row r="234" ht="15.75" customHeight="1">
+      <c r="C234" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="234">
-      <c r="C234" s="1" t="s">
+    <row r="235" ht="15.75" customHeight="1">
+      <c r="C235" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="235">
-      <c r="C235" s="1" t="s">
+    <row r="236" ht="15.75" customHeight="1">
+      <c r="C236" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="236">
-      <c r="C236" s="1" t="s">
+    <row r="237" ht="15.75" customHeight="1">
+      <c r="C237" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="237">
-      <c r="C237" s="1" t="s">
+    <row r="238" ht="15.75" customHeight="1">
+      <c r="C238" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="238">
-      <c r="C238" s="1" t="s">
+    <row r="239" ht="15.75" customHeight="1">
+      <c r="C239" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="239">
-      <c r="C239" s="1" t="s">
+    <row r="240" ht="15.75" customHeight="1">
+      <c r="C240" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="240">
-      <c r="C240" s="1" t="s">
+    <row r="241" ht="15.75" customHeight="1">
+      <c r="C241" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="241">
-      <c r="C241" s="1" t="s">
+    <row r="242" ht="15.75" customHeight="1">
+      <c r="C242" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="242">
-      <c r="C242" s="1" t="s">
+    <row r="243" ht="15.75" customHeight="1">
+      <c r="C243" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="243">
-      <c r="C243" s="1" t="s">
+    <row r="244" ht="15.75" customHeight="1">
+      <c r="C244" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="244">
-      <c r="C244" s="1" t="s">
+    <row r="245" ht="15.75" customHeight="1">
+      <c r="C245" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="245">
-      <c r="C245" s="1" t="s">
+    <row r="246" ht="15.75" customHeight="1">
+      <c r="C246" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="246">
-      <c r="C246" s="1" t="s">
+    <row r="247" ht="15.75" customHeight="1">
+      <c r="C247" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="247">
-      <c r="C247" s="1" t="s">
+    <row r="248" ht="15.75" customHeight="1">
+      <c r="C248" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="248">
-      <c r="C248" s="1" t="s">
+    <row r="249" ht="15.75" customHeight="1">
+      <c r="C249" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="249">
-      <c r="C249" s="1" t="s">
+    <row r="250" ht="15.75" customHeight="1">
+      <c r="C250" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="250">
-      <c r="C250" s="1" t="s">
+    <row r="251" ht="15.75" customHeight="1">
+      <c r="C251" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="251">
-      <c r="C251" s="1" t="s">
+    <row r="252" ht="15.75" customHeight="1">
+      <c r="C252" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="252">
-      <c r="C252" s="1" t="s">
+    <row r="253" ht="15.75" customHeight="1">
+      <c r="C253" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="253">
-      <c r="C253" s="1" t="s">
+    <row r="254" ht="15.75" customHeight="1">
+      <c r="C254" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="254">
-      <c r="C254" s="1" t="s">
+    <row r="255" ht="15.75" customHeight="1">
+      <c r="C255" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="255">
-      <c r="C255" s="1" t="s">
+    <row r="256" ht="15.75" customHeight="1">
+      <c r="C256" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="256">
-      <c r="C256" s="1" t="s">
+    <row r="257" ht="15.75" customHeight="1">
+      <c r="C257" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="257">
-      <c r="C257" s="1" t="s">
+    <row r="258" ht="15.75" customHeight="1">
+      <c r="C258" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="258">
-      <c r="C258" s="1" t="s">
+    <row r="259" ht="15.75" customHeight="1">
+      <c r="C259" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="259">
-      <c r="C259" s="1" t="s">
+    <row r="260" ht="15.75" customHeight="1">
+      <c r="C260" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="260">
-      <c r="C260" s="1" t="s">
+    <row r="261" ht="15.75" customHeight="1">
+      <c r="C261" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="261">
-      <c r="C261" s="1" t="s">
+    <row r="262" ht="15.75" customHeight="1">
+      <c r="C262" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="262">
-      <c r="C262" s="1" t="s">
+    <row r="263" ht="15.75" customHeight="1">
+      <c r="C263" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="263">
-      <c r="C263" s="1" t="s">
+    <row r="264" ht="15.75" customHeight="1">
+      <c r="C264" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="264">
-      <c r="C264" s="1" t="s">
+    <row r="265" ht="15.75" customHeight="1">
+      <c r="C265" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="265">
-      <c r="C265" s="1" t="s">
+    <row r="266" ht="15.75" customHeight="1">
+      <c r="C266" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="266">
-      <c r="C266" s="1" t="s">
+    <row r="267" ht="15.75" customHeight="1">
+      <c r="C267" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="267">
-      <c r="C267" s="1" t="s">
+    <row r="268" ht="15.75" customHeight="1">
+      <c r="C268" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="268">
-      <c r="C268" s="1" t="s">
+    <row r="269" ht="15.75" customHeight="1">
+      <c r="C269" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="269">
-      <c r="C269" s="1" t="s">
+    <row r="270" ht="15.75" customHeight="1">
+      <c r="C270" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="270">
-      <c r="C270" s="1" t="s">
+    <row r="271" ht="15.75" customHeight="1">
+      <c r="C271" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="271">
-      <c r="C271" s="1" t="s">
+    <row r="272" ht="15.75" customHeight="1">
+      <c r="C272" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="272">
-      <c r="C272" s="1" t="s">
+    <row r="273" ht="15.75" customHeight="1">
+      <c r="C273" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="273">
-      <c r="C273" s="1" t="s">
+    <row r="274" ht="15.75" customHeight="1">
+      <c r="C274" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="274">
-      <c r="C274" s="1" t="s">
+    <row r="275" ht="15.75" customHeight="1">
+      <c r="C275" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="275">
-      <c r="C275" s="1" t="s">
+    <row r="276" ht="15.75" customHeight="1">
+      <c r="C276" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="276">
-      <c r="C276" s="1" t="s">
+    <row r="277" ht="15.75" customHeight="1">
+      <c r="C277" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="277">
-      <c r="C277" s="1" t="s">
+    <row r="278" ht="15.75" customHeight="1">
+      <c r="C278" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="278">
-      <c r="C278" s="1" t="s">
+    <row r="279" ht="15.75" customHeight="1">
+      <c r="C279" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="279">
-      <c r="C279" s="1" t="s">
+    <row r="280" ht="15.75" customHeight="1">
+      <c r="C280" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="280">
-      <c r="C280" s="1" t="s">
+    <row r="281" ht="15.75" customHeight="1">
+      <c r="C281" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="281">
-      <c r="C281" s="1" t="s">
+    <row r="282" ht="15.75" customHeight="1">
+      <c r="C282" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="282">
-      <c r="C282" s="1" t="s">
+    <row r="283" ht="15.75" customHeight="1">
+      <c r="C283" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="283">
-      <c r="C283" s="1" t="s">
+    <row r="284" ht="15.75" customHeight="1">
+      <c r="C284" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="284">
-      <c r="C284" s="1" t="s">
+    <row r="285" ht="15.75" customHeight="1">
+      <c r="C285" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="285">
-      <c r="C285" s="1" t="s">
+    <row r="286" ht="15.75" customHeight="1">
+      <c r="C286" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="286">
-      <c r="C286" s="1" t="s">
+    <row r="287" ht="15.75" customHeight="1">
+      <c r="C287" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="287">
-      <c r="C287" s="1" t="s">
+    <row r="288" ht="15.75" customHeight="1">
+      <c r="C288" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="288">
-      <c r="C288" s="1" t="s">
+    <row r="289" ht="15.75" customHeight="1">
+      <c r="C289" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="289">
-      <c r="C289" s="1" t="s">
+    <row r="290" ht="15.75" customHeight="1">
+      <c r="C290" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="290">
-      <c r="C290" s="1" t="s">
+    <row r="291" ht="15.75" customHeight="1">
+      <c r="C291" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="291">
-      <c r="C291" s="1" t="s">
+    <row r="292" ht="15.75" customHeight="1">
+      <c r="C292" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="292">
-      <c r="C292" s="1" t="s">
+    <row r="293" ht="15.75" customHeight="1">
+      <c r="C293" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="293">
-      <c r="C293" s="1" t="s">
+    <row r="294" ht="15.75" customHeight="1">
+      <c r="C294" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="294">
-      <c r="C294" s="1" t="s">
+    <row r="295" ht="15.75" customHeight="1">
+      <c r="C295" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="295">
-      <c r="C295" s="1" t="s">
+    <row r="296" ht="15.75" customHeight="1">
+      <c r="C296" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="296">
-      <c r="C296" s="1" t="s">
+    <row r="297" ht="15.75" customHeight="1">
+      <c r="C297" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="297">
-      <c r="C297" s="1" t="s">
+    <row r="298" ht="15.75" customHeight="1">
+      <c r="C298" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="298">
-      <c r="C298" s="1" t="s">
+    <row r="299" ht="15.75" customHeight="1">
+      <c r="C299" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="299">
-      <c r="C299" s="1" t="s">
+    <row r="300" ht="15.75" customHeight="1">
+      <c r="C300" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="300">
-      <c r="C300" s="1" t="s">
+    <row r="301" ht="15.75" customHeight="1">
+      <c r="C301" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="301">
-      <c r="C301" s="1" t="s">
+    <row r="302" ht="15.75" customHeight="1">
+      <c r="C302" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="302">
-      <c r="C302" s="1" t="s">
+    <row r="303" ht="15.75" customHeight="1">
+      <c r="C303" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="303">
-      <c r="C303" s="1" t="s">
+    <row r="304" ht="15.75" customHeight="1">
+      <c r="C304" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="304">
-      <c r="C304" s="1" t="s">
+    <row r="305" ht="15.75" customHeight="1">
+      <c r="C305" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="305">
-      <c r="C305" s="1" t="s">
+    <row r="306" ht="15.75" customHeight="1">
+      <c r="C306" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="306">
-      <c r="C306" s="1" t="s">
+    <row r="307" ht="15.75" customHeight="1">
+      <c r="C307" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="307">
-      <c r="C307" s="1" t="s">
+    <row r="308" ht="15.75" customHeight="1">
+      <c r="C308" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="308">
-      <c r="C308" s="1" t="s">
+    <row r="309" ht="15.75" customHeight="1">
+      <c r="C309" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="309">
-      <c r="C309" s="1" t="s">
+    <row r="310" ht="15.75" customHeight="1">
+      <c r="C310" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="310">
-      <c r="C310" s="1" t="s">
+    <row r="311" ht="15.75" customHeight="1">
+      <c r="C311" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="311">
-      <c r="C311" s="1" t="s">
+    <row r="312" ht="15.75" customHeight="1">
+      <c r="C312" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="312">
-      <c r="C312" s="1" t="s">
+    <row r="313" ht="15.75" customHeight="1">
+      <c r="C313" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="313">
-      <c r="C313" s="1" t="s">
+    <row r="314" ht="15.75" customHeight="1">
+      <c r="C314" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="314">
-      <c r="C314" s="1" t="s">
+    <row r="315" ht="15.75" customHeight="1">
+      <c r="C315" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="315">
-      <c r="C315" s="1" t="s">
+    <row r="316" ht="15.75" customHeight="1">
+      <c r="C316" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="316">
-      <c r="C316" s="1" t="s">
+    <row r="317" ht="15.75" customHeight="1">
+      <c r="C317" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="317">
-      <c r="C317" s="1" t="s">
+    <row r="318" ht="15.75" customHeight="1">
+      <c r="C318" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="318">
-      <c r="C318" s="1" t="s">
+    <row r="319" ht="15.75" customHeight="1">
+      <c r="C319" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="319">
-      <c r="C319" s="1" t="s">
+    <row r="320" ht="15.75" customHeight="1">
+      <c r="C320" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="320">
-      <c r="C320" s="1" t="s">
+    <row r="321" ht="15.75" customHeight="1">
+      <c r="C321" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="321">
-      <c r="C321" s="1" t="s">
+    <row r="322" ht="15.75" customHeight="1">
+      <c r="C322" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="322">
-      <c r="C322" s="1" t="s">
+    <row r="323" ht="15.75" customHeight="1">
+      <c r="C323" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="323">
-      <c r="C323" s="1" t="s">
+    <row r="324" ht="15.75" customHeight="1">
+      <c r="C324" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="324">
-      <c r="C324" s="1" t="s">
+    <row r="325" ht="15.75" customHeight="1">
+      <c r="C325" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="325">
-      <c r="C325" s="1" t="s">
+    <row r="326" ht="15.75" customHeight="1">
+      <c r="C326" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="326">
-      <c r="C326" s="1" t="s">
+    <row r="327" ht="15.75" customHeight="1">
+      <c r="C327" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="327">
-      <c r="C327" s="1" t="s">
+    <row r="328" ht="15.75" customHeight="1">
+      <c r="C328" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="328">
-      <c r="C328" s="1" t="s">
+    <row r="329" ht="15.75" customHeight="1">
+      <c r="C329" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="329">
-      <c r="C329" s="1" t="s">
+    <row r="330" ht="15.75" customHeight="1">
+      <c r="C330" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="330">
-      <c r="C330" s="1" t="s">
+    <row r="331" ht="15.75" customHeight="1">
+      <c r="C331" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="331">
-      <c r="C331" s="1" t="s">
+    <row r="332" ht="15.75" customHeight="1">
+      <c r="C332" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="332">
-      <c r="C332" s="1" t="s">
+    <row r="333" ht="15.75" customHeight="1">
+      <c r="C333" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="333">
-      <c r="C333" s="1" t="s">
+    <row r="334" ht="15.75" customHeight="1">
+      <c r="C334" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="334">
-      <c r="C334" s="1" t="s">
+    <row r="335" ht="15.75" customHeight="1">
+      <c r="C335" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="335">
-      <c r="C335" s="1" t="s">
+    <row r="336" ht="15.75" customHeight="1">
+      <c r="C336" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="336">
-      <c r="C336" s="1" t="s">
+    <row r="337" ht="15.75" customHeight="1">
+      <c r="C337" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="337">
-      <c r="C337" s="1" t="s">
+    <row r="338" ht="15.75" customHeight="1">
+      <c r="C338" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="338">
-      <c r="C338" s="1" t="s">
+    <row r="339" ht="15.75" customHeight="1">
+      <c r="C339" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="339">
-      <c r="C339" s="1" t="s">
+    <row r="340" ht="15.75" customHeight="1">
+      <c r="C340" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="340">
-      <c r="C340" s="1" t="s">
+    <row r="341" ht="15.75" customHeight="1">
+      <c r="C341" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="341">
-      <c r="C341" s="1" t="s">
+    <row r="342" ht="15.75" customHeight="1">
+      <c r="C342" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="342">
-      <c r="C342" s="1" t="s">
+    <row r="343" ht="15.75" customHeight="1">
+      <c r="C343" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="343">
-      <c r="C343" s="1" t="s">
+    <row r="344" ht="15.75" customHeight="1">
+      <c r="C344" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="344">
-      <c r="C344" s="1" t="s">
+    <row r="345" ht="15.75" customHeight="1">
+      <c r="C345" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="345">
-      <c r="C345" s="1" t="s">
+    <row r="346" ht="15.75" customHeight="1">
+      <c r="C346" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="346">
-      <c r="C346" s="1" t="s">
+    <row r="347" ht="15.75" customHeight="1">
+      <c r="C347" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="347">
-      <c r="C347" s="1" t="s">
+    <row r="348" ht="15.75" customHeight="1">
+      <c r="C348" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="348">
-      <c r="C348" s="1" t="s">
+    <row r="349" ht="15.75" customHeight="1">
+      <c r="C349" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="349">
-      <c r="C349" s="1" t="s">
+    <row r="350" ht="15.75" customHeight="1">
+      <c r="C350" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="350">
-      <c r="C350" s="1" t="s">
+    <row r="351" ht="15.75" customHeight="1">
+      <c r="C351" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="351">
-      <c r="C351" s="1" t="s">
+    <row r="352" ht="15.75" customHeight="1">
+      <c r="C352" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="352">
-      <c r="C352" s="1" t="s">
+    <row r="353" ht="15.75" customHeight="1">
+      <c r="C353" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="353">
-      <c r="C353" s="1" t="s">
+    <row r="354" ht="15.75" customHeight="1">
+      <c r="C354" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="354">
-      <c r="C354" s="1" t="s">
+    <row r="355" ht="15.75" customHeight="1">
+      <c r="C355" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="355">
-      <c r="C355" s="1" t="s">
+    <row r="356" ht="15.75" customHeight="1">
+      <c r="C356" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="356">
-      <c r="C356" s="1" t="s">
+    <row r="357" ht="15.75" customHeight="1">
+      <c r="C357" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="357">
-      <c r="C357" s="1" t="s">
+    <row r="358" ht="15.75" customHeight="1">
+      <c r="C358" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="358">
-      <c r="C358" s="1" t="s">
+    <row r="359" ht="15.75" customHeight="1">
+      <c r="C359" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="359">
-      <c r="C359" s="1" t="s">
+    <row r="360" ht="15.75" customHeight="1">
+      <c r="C360" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="360">
-      <c r="C360" s="1" t="s">
+    <row r="361" ht="15.75" customHeight="1">
+      <c r="C361" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="361">
-      <c r="C361" s="1" t="s">
+    <row r="362" ht="15.75" customHeight="1">
+      <c r="C362" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="362">
-      <c r="C362" s="1" t="s">
+    <row r="363" ht="15.75" customHeight="1">
+      <c r="C363" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="363">
-      <c r="C363" s="1" t="s">
+    <row r="364" ht="15.75" customHeight="1">
+      <c r="C364" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="364">
-      <c r="C364" s="1" t="s">
+    <row r="365" ht="15.75" customHeight="1">
+      <c r="C365" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="365">
-      <c r="C365" s="1" t="s">
+    <row r="366" ht="15.75" customHeight="1">
+      <c r="C366" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="366">
-      <c r="C366" s="1" t="s">
+    <row r="367" ht="15.75" customHeight="1">
+      <c r="C367" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="367">
-      <c r="C367" s="1" t="s">
+    <row r="368" ht="15.75" customHeight="1">
+      <c r="C368" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="368">
-      <c r="C368" s="1" t="s">
+    <row r="369" ht="15.75" customHeight="1">
+      <c r="C369" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="369">
-      <c r="C369" s="1" t="s">
+    <row r="370" ht="15.75" customHeight="1">
+      <c r="C370" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="370">
-      <c r="C370" s="1" t="s">
+    <row r="371" ht="15.75" customHeight="1">
+      <c r="C371" s="1" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="371">
-      <c r="C371" s="1" t="s">
+    <row r="372" ht="15.75" customHeight="1">
+      <c r="C372" s="1" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="372">
-      <c r="C372" s="1" t="s">
+    <row r="373" ht="15.75" customHeight="1">
+      <c r="C373" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="373">
-      <c r="C373" s="1" t="s">
+    <row r="374" ht="15.75" customHeight="1">
+      <c r="C374" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="374">
-      <c r="C374" s="1" t="s">
+    <row r="375" ht="15.75" customHeight="1">
+      <c r="C375" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="375">
-      <c r="C375" s="1" t="s">
+    <row r="376" ht="15.75" customHeight="1">
+      <c r="C376" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="376">
-      <c r="C376" s="1" t="s">
+    <row r="377" ht="15.75" customHeight="1">
+      <c r="C377" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="377">
-      <c r="C377" s="1" t="s">
+    <row r="378" ht="15.75" customHeight="1">
+      <c r="C378" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="378">
-      <c r="C378" s="1" t="s">
+    <row r="379" ht="15.75" customHeight="1">
+      <c r="C379" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="379">
-      <c r="C379" s="1" t="s">
+    <row r="380" ht="15.75" customHeight="1">
+      <c r="C380" s="1" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="380">
-      <c r="C380" s="1" t="s">
+    <row r="381" ht="15.75" customHeight="1">
+      <c r="C381" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="381">
-      <c r="C381" s="1" t="s">
+    <row r="382" ht="15.75" customHeight="1">
+      <c r="C382" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="382">
-      <c r="C382" s="1" t="s">
+    <row r="383" ht="15.75" customHeight="1">
+      <c r="C383" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="383">
-      <c r="C383" s="1" t="s">
+    <row r="384" ht="15.75" customHeight="1">
+      <c r="C384" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="384">
-      <c r="C384" s="1" t="s">
+    <row r="385" ht="15.75" customHeight="1">
+      <c r="C385" s="1" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="385">
-      <c r="C385" s="1" t="s">
+    <row r="386" ht="15.75" customHeight="1">
+      <c r="C386" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="386">
-      <c r="C386" s="1" t="s">
+    <row r="387" ht="15.75" customHeight="1">
+      <c r="C387" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="387">
-      <c r="C387" s="1" t="s">
+    <row r="388" ht="15.75" customHeight="1">
+      <c r="C388" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="388">
-      <c r="C388" s="1" t="s">
+    <row r="389" ht="15.75" customHeight="1">
+      <c r="C389" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="389">
-      <c r="C389" s="1" t="s">
+    <row r="390" ht="15.75" customHeight="1">
+      <c r="C390" s="1" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="390">
-      <c r="C390" s="1" t="s">
+    <row r="391" ht="15.75" customHeight="1">
+      <c r="C391" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="391">
-      <c r="C391" s="1" t="s">
+    <row r="392" ht="15.75" customHeight="1">
+      <c r="C392" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="392">
-      <c r="C392" s="1" t="s">
+    <row r="393" ht="15.75" customHeight="1">
+      <c r="C393" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="393">
-      <c r="C393" s="1" t="s">
+    <row r="394" ht="15.75" customHeight="1">
+      <c r="C394" s="1" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="394">
-      <c r="C394" s="1" t="s">
+    <row r="395" ht="15.75" customHeight="1">
+      <c r="C395" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="395">
-      <c r="C395" s="1" t="s">
+    <row r="396" ht="15.75" customHeight="1">
+      <c r="C396" s="1" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="396">
-      <c r="C396" s="1" t="s">
+    <row r="397" ht="15.75" customHeight="1">
+      <c r="C397" s="1" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="397">
-      <c r="C397" s="1" t="s">
+    <row r="398" ht="15.75" customHeight="1">
+      <c r="C398" s="1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="398">
-      <c r="C398" s="1" t="s">
+    <row r="399" ht="15.75" customHeight="1">
+      <c r="C399" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="399">
-      <c r="C399" s="1" t="s">
+    <row r="400" ht="15.75" customHeight="1">
+      <c r="C400" s="1" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="400">
-      <c r="C400" s="1" t="s">
+    <row r="401" ht="15.75" customHeight="1">
+      <c r="C401" s="1" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="401">
-      <c r="C401" s="1" t="s">
+    <row r="402" ht="15.75" customHeight="1">
+      <c r="C402" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="402">
-      <c r="C402" s="1" t="s">
+    <row r="403" ht="15.75" customHeight="1">
+      <c r="C403" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="403">
-      <c r="C403" s="1" t="s">
+    <row r="404" ht="15.75" customHeight="1">
+      <c r="C404" s="1" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="404">
-      <c r="C404" s="1" t="s">
+    <row r="405" ht="15.75" customHeight="1">
+      <c r="C405" s="1" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="405">
-      <c r="C405" s="1" t="s">
+    <row r="406" ht="15.75" customHeight="1">
+      <c r="C406" s="1" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="406">
-      <c r="C406" s="1" t="s">
+    <row r="407" ht="15.75" customHeight="1">
+      <c r="C407" s="1" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="407">
-      <c r="C407" s="1" t="s">
+    <row r="408" ht="15.75" customHeight="1">
+      <c r="C408" s="1" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="408">
-      <c r="C408" s="1" t="s">
+    <row r="409" ht="15.75" customHeight="1">
+      <c r="C409" s="1" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="409">
-      <c r="C409" s="1" t="s">
+    <row r="410" ht="15.75" customHeight="1">
+      <c r="C410" s="1" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="410">
-      <c r="C410" s="1" t="s">
+    <row r="411" ht="15.75" customHeight="1">
+      <c r="C411" s="1" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="411">
-      <c r="C411" s="1" t="s">
+    <row r="412" ht="15.75" customHeight="1">
+      <c r="C412" s="1" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="412">
-      <c r="C412" s="1" t="s">
+    <row r="413" ht="15.75" customHeight="1">
+      <c r="C413" s="1" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="413">
-      <c r="C413" s="1" t="s">
+    <row r="414" ht="15.75" customHeight="1">
+      <c r="C414" s="1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="414">
-      <c r="C414" s="1" t="s">
+    <row r="415" ht="15.75" customHeight="1">
+      <c r="C415" s="1" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="415">
-      <c r="C415" s="1" t="s">
+    <row r="416" ht="15.75" customHeight="1">
+      <c r="C416" s="1" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="416">
-      <c r="C416" s="1" t="s">
+    <row r="417" ht="15.75" customHeight="1">
+      <c r="C417" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="417">
-      <c r="C417" s="1" t="s">
+    <row r="418" ht="15.75" customHeight="1">
+      <c r="C418" s="1" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="418">
-      <c r="C418" s="1" t="s">
+    <row r="419" ht="15.75" customHeight="1">
+      <c r="C419" s="1" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="419">
-      <c r="C419" s="1" t="s">
+    <row r="420" ht="15.75" customHeight="1">
+      <c r="C420" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="421" ht="15.75" customHeight="1">
+      <c r="C421" s="1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="420">
-      <c r="C420" s="1" t="s">
+    <row r="422" ht="15.75" customHeight="1">
+      <c r="C422" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="421">
-      <c r="C421" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="C422" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="C423" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/ms21_dataset_split.xlsx
+++ b/ms21_dataset_split.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="503">
   <si>
     <t>test</t>
   </si>
@@ -27,1508 +27,1511 @@
     <t>train</t>
   </si>
   <si>
-    <t>Al James - Schoolboy Fascination</t>
-  </si>
-  <si>
-    <t>Actions - One Minute Smile</t>
-  </si>
-  <si>
-    <t>Malenky Slovos - Matterplay</t>
-  </si>
-  <si>
-    <t>AM Contra - Heart Peripheral</t>
-  </si>
-  <si>
-    <t>Actions - South Of The Water</t>
-  </si>
-  <si>
-    <t>Dark Ride - Hammer Down</t>
+    <t>Al James - Schoolboy Fascination'</t>
+  </si>
+  <si>
+    <t>Actions - One Minute Smile'</t>
+  </si>
+  <si>
+    <t>3D-MARCo Project - Piano Solo 1'</t>
+  </si>
+  <si>
+    <t>AM Contra - Heart Peripheral'</t>
+  </si>
+  <si>
+    <t>Actions - South Of The Water'</t>
+  </si>
+  <si>
+    <t>3D-MARCo Project - String Quartet'</t>
   </si>
   <si>
     <t>Angels In Amplifiers - I'm Alright</t>
   </si>
   <si>
-    <t>Dorothea Wessel - Muddy Water</t>
-  </si>
-  <si>
-    <t>APZX - Lacuna</t>
-  </si>
-  <si>
-    <t>Arise - Run Run Run</t>
-  </si>
-  <si>
-    <t>Fergessen - Back From The Start</t>
-  </si>
-  <si>
-    <t>Strobe - Nostalgic</t>
-  </si>
-  <si>
-    <t>Banned From The Zoo - Black Out Betty</t>
-  </si>
-  <si>
-    <t>Fergessen - Nos Palpitants</t>
-  </si>
-  <si>
-    <t>Tommy Marcinek - My Childhood Sweetheart</t>
-  </si>
-  <si>
-    <t>Banned From The Zoo - Encore</t>
-  </si>
-  <si>
-    <t>Fergessen - The Wind</t>
-  </si>
-  <si>
-    <t>V.M.GY - Bloodshed</t>
-  </si>
-  <si>
-    <t>Banned From The Zoo - Fish Tacos</t>
-  </si>
-  <si>
-    <t>James May - All Souls Moon</t>
+    <t>Dorothea Wessel - Muddy Water'</t>
+  </si>
+  <si>
+    <t>Actions - Devil's Words</t>
+  </si>
+  <si>
+    <t>Arise - Run Run Run'</t>
+  </si>
+  <si>
+    <t>Fergessen - Back From The Start'</t>
+  </si>
+  <si>
+    <t>Adam Buckley - Drag me Down'</t>
+  </si>
+  <si>
+    <t>Banned From The Zoo - Black Out Betty'</t>
+  </si>
+  <si>
+    <t>Fergessen - Nos Palpitants'</t>
+  </si>
+  <si>
+    <t>Admiral Crumple - Keeps Flowing'</t>
+  </si>
+  <si>
+    <t>Banned From The Zoo - Encore'</t>
+  </si>
+  <si>
+    <t>Fergessen - The Wind'</t>
+  </si>
+  <si>
+    <t>Ajay Nagarkoti &amp; Vibhu Dixit - Ae Mere Humsafar'</t>
+  </si>
+  <si>
+    <t>Banned From The Zoo - Fish Tacos'</t>
+  </si>
+  <si>
+    <t>James May - All Souls Moon'</t>
+  </si>
+  <si>
+    <t>Alan Evans Trio - I'm Coming Home</t>
+  </si>
+  <si>
+    <t>Banned From The Zoo - Turn On Me'</t>
+  </si>
+  <si>
+    <t>James May - Don't Let Go</t>
+  </si>
+  <si>
+    <t>Alan Mansfield &amp; John Pritchard - Boat Ride'</t>
+  </si>
+  <si>
+    <t>Ben Carrigan - Hey Carrie Anne'</t>
+  </si>
+  <si>
+    <t>James May - Eliza Jane'</t>
+  </si>
+  <si>
+    <t>Albert Kader - Ubiquitous'</t>
+  </si>
+  <si>
+    <t>Ben Carrigan - We'll Talk About It All Tonight</t>
+  </si>
+  <si>
+    <t>James May - Hold On You'</t>
+  </si>
+  <si>
+    <t>Albert Kader - Whiptails'</t>
+  </si>
+  <si>
+    <t>Bobby Nobody - Stitch Up'</t>
+  </si>
+  <si>
+    <t>James May - If You Say'</t>
+  </si>
+  <si>
+    <t>Alejo Granados - Rumba Chonta'</t>
+  </si>
+  <si>
+    <t>Buitraker - Revo X'</t>
+  </si>
+  <si>
+    <t>James May - On The Line'</t>
+  </si>
+  <si>
+    <t>Ale Lak - Nosso Mundo Deixou De Existir'</t>
+  </si>
+  <si>
+    <t>Carlitos Gonzalez - A Place For Us'</t>
+  </si>
+  <si>
+    <t>Johnny Lokke - Promises &amp; Lies'</t>
+  </si>
+  <si>
+    <t>Allen Stone - Naturally'</t>
+  </si>
+  <si>
+    <t>Carol Dant - Do Not Stand'</t>
+  </si>
+  <si>
+    <t>Johnny Lokke - Whisper To A Scream'</t>
+  </si>
+  <si>
+    <t>All Hands Lost - Ambitions'</t>
+  </si>
+  <si>
+    <t>Carol Dant - I Am The Desert'</t>
+  </si>
+  <si>
+    <t>Leaf - Come Around'</t>
+  </si>
+  <si>
+    <t>Amber Skye - Howlin'</t>
+  </si>
+  <si>
+    <t>Detsky Sad - Walkie Talkie'</t>
+  </si>
+  <si>
+    <t>Leaf - Summerghost'</t>
+  </si>
+  <si>
+    <t>Amy Helm &amp; The Handsome Strangers - Rescue Me'</t>
+  </si>
+  <si>
+    <t>Finlay - Same Kind Of Life'</t>
+  </si>
+  <si>
+    <t>Leaf - Wicked'</t>
+  </si>
+  <si>
+    <t>Andres Guazzelli - Attention'</t>
+  </si>
+  <si>
+    <t>Forkupines - Semantics'</t>
+  </si>
+  <si>
+    <t>Pepelpovetru - Tochka'</t>
+  </si>
+  <si>
+    <t>Andres Guazzelli - Flores De Abril'</t>
+  </si>
+  <si>
+    <t>Forkupines - Sleep By The Fire Bloom In Water'</t>
+  </si>
+  <si>
+    <t>Traffic Experiment - Once More (With Feeling)'</t>
+  </si>
+  <si>
+    <t>Andrew Cole - Dead Roses'</t>
+  </si>
+  <si>
+    <t>Forkupines - Sugar - Faith'</t>
+  </si>
+  <si>
+    <t>Traffic Experiment - Sirens'</t>
+  </si>
+  <si>
+    <t>Andrey Yaroshinsky &amp; The Gnessin Academy Chamber Orchestra - W.A. Mozart'\''s Piano Concerto No.12 K414 (Allegro)'</t>
+  </si>
+  <si>
+    <t>Georgia Wonder - Siren'</t>
+  </si>
+  <si>
+    <t>Triviul - Alright'</t>
+  </si>
+  <si>
+    <t>Angela Thomas Wade - Milk Cow Blues'</t>
+  </si>
+  <si>
+    <t>Girls Under Glass - We Feel Alright'</t>
+  </si>
+  <si>
+    <t>Triviul - Angelsaint'</t>
+  </si>
+  <si>
+    <t>Angelo Boltini - This Town'</t>
+  </si>
+  <si>
+    <t>Hollow Ground - Ill Fate'</t>
+  </si>
+  <si>
+    <t>Triviul - Better'</t>
+  </si>
+  <si>
+    <t>Anna Blanton - Rachel'</t>
+  </si>
+  <si>
+    <t>Hollow Ground - Left Blind'</t>
+  </si>
+  <si>
+    <t>Triviul - Dorothy'</t>
+  </si>
+  <si>
+    <t>Anna Blanton - Waves'</t>
+  </si>
+  <si>
+    <t>James Elder &amp; Mark M Thompson - The English Actor'</t>
+  </si>
+  <si>
+    <t>Triviul - Gimme'</t>
+  </si>
+  <si>
+    <t>APZX - Amalgamize'</t>
+  </si>
+  <si>
+    <t>Juliet's Rescue - Heartbeats</t>
+  </si>
+  <si>
+    <t>Triviul - To Sam Rawfers'</t>
+  </si>
+  <si>
+    <t>APZX - Cyber Mower'</t>
+  </si>
+  <si>
+    <t>Little Chicago's Finest - My Own</t>
+  </si>
+  <si>
+    <t>Triviul - Widow (feat. The Fiend)'</t>
+  </si>
+  <si>
+    <t>APZX - Lacuna'</t>
+  </si>
+  <si>
+    <t>Louis Cressy Band - Good Time'</t>
+  </si>
+  <si>
+    <t>Young Griffo - Blood To Bone'</t>
+  </si>
+  <si>
+    <t>APZX - Transcention'</t>
+  </si>
+  <si>
+    <t>Lyndsey Ollard - Catching Up'</t>
+  </si>
+  <si>
+    <t>Young Griffo - Facade'</t>
+  </si>
+  <si>
+    <t>Araujo - The Saga Of Harrison Crabfeathers'</t>
+  </si>
+  <si>
+    <t>M.E.R.C. Music - Knockout'</t>
+  </si>
+  <si>
+    <t>Young Griffo - Pennies'</t>
+  </si>
+  <si>
+    <t>Aron Jaeger - Fly High'</t>
+  </si>
+  <si>
+    <t>Moosmusic - Big Dummy Shake'</t>
+  </si>
+  <si>
+    <t>Asam Classical Soloists - G.F.Handel's Non Lo Diro Col Labbro</t>
+  </si>
+  <si>
+    <t>Motor Tapes - Shore'</t>
+  </si>
+  <si>
+    <t>Asam Classical Soloists - J.S.Bach's Jesu bleibet meine Freude</t>
+  </si>
+  <si>
+    <t>Mu - Too Bright'</t>
+  </si>
+  <si>
+    <t>Atlantis Bound - It Was My Fault For Waiting'</t>
+  </si>
+  <si>
+    <t>Nerve 9 - Living Lie'</t>
+  </si>
+  <si>
+    <t>Avalon - All I Know'</t>
+  </si>
+  <si>
+    <t>Nerve 9 - Pray For The Rain'</t>
+  </si>
+  <si>
+    <t>Babe Grand - Aiguille Rouge'</t>
+  </si>
+  <si>
+    <t>Punkdisco - Oral Hygiene'</t>
+  </si>
+  <si>
+    <t>Babe Grand - King Of The Weekend'</t>
+  </si>
+  <si>
+    <t>Raft Monk - Tiring'</t>
+  </si>
+  <si>
+    <t>Balkun Brothers - So Hi. So Lo'</t>
+  </si>
+  <si>
+    <t>Sambasevam Shanmugam - Kaathaadi'</t>
+  </si>
+  <si>
+    <t>Banda Magda - Mouche'</t>
+  </si>
+  <si>
+    <t>Side Effects Project - Sing With Me'</t>
+  </si>
+  <si>
+    <t>Barnstar! - Believer'</t>
+  </si>
+  <si>
+    <t>Signe Jakobsen - What Have You Done To Me'</t>
+  </si>
+  <si>
+    <t>Barnstar! - You Don'\''t Know'</t>
+  </si>
+  <si>
+    <t>Speak Softly - Broken Man'</t>
+  </si>
+  <si>
+    <t>BaumXmedia - Dream State (feat. Flora Lin)'</t>
+  </si>
+  <si>
+    <t>The Doppler Shift - Atrophy'</t>
+  </si>
+  <si>
+    <t>BaumXmedia - Koishii (feat. N.I.A.)'</t>
+  </si>
+  <si>
+    <t>The Mountaineering Club - Mallory'</t>
+  </si>
+  <si>
+    <t>Benjamin John - Better Way'</t>
+  </si>
+  <si>
+    <t>The Sunshine Garcia Band - For I Am The Moon'</t>
+  </si>
+  <si>
+    <t>Big Head Todd &amp; The Monsters - Hey Delilah'</t>
+  </si>
+  <si>
+    <t>Timboz - Pony'</t>
+  </si>
+  <si>
+    <t>Big Mean Sound Machine - Contraband'</t>
+  </si>
+  <si>
+    <t>Tom McKenzie - Directions'</t>
+  </si>
+  <si>
+    <t>Big Stone Culture - Fragile Thoughts'</t>
+  </si>
+  <si>
+    <t>We Fell From The Sky - Not You'</t>
+  </si>
+  <si>
+    <t>Bill Chudziak - Children Of No-one'</t>
+  </si>
+  <si>
+    <t>W.I.N.D. - Funky To The Bone'</t>
+  </si>
+  <si>
+    <t>Black Bloc - If You Want Success'</t>
+  </si>
+  <si>
+    <t>W.I.N.D. - Temporary Happiness'</t>
+  </si>
+  <si>
+    <t>Blue Lit Moon - Dad's Glad</t>
+  </si>
+  <si>
+    <t>Zeno - Signs'</t>
+  </si>
+  <si>
+    <t>Blues Bastards - Lights Out!'</t>
+  </si>
+  <si>
+    <t>Blues Bastards - Sugar'</t>
+  </si>
+  <si>
+    <t>Bolz &amp; Knecht - Brahms'\'' Hungarian Dance No. 5'</t>
+  </si>
+  <si>
+    <t>Bolz &amp; Knecht - Summertime'</t>
+  </si>
+  <si>
+    <t>Boogiesnakes - It's My Right</t>
+  </si>
+  <si>
+    <t>Bosnian Rainbows - Morning Sickness'</t>
+  </si>
+  <si>
+    <t>Bravestar - Downtempo'</t>
+  </si>
+  <si>
+    <t>Brian C Cai Fei Hong - Never Let You Go'</t>
+  </si>
+  <si>
+    <t>Bronze Radio Return - Mister Mister'</t>
+  </si>
+  <si>
+    <t>Bruks - Kak Tvoi Dela Vova'</t>
+  </si>
+  <si>
+    <t>Camilla Francesca Bull - Va! Laisse Couler Mes Larmes'</t>
+  </si>
+  <si>
+    <t>Camilla Francesca Bull - W.A.Mozart's Voi Che Sapete</t>
+  </si>
+  <si>
+    <t>Candlebox - Happy Pills'</t>
+  </si>
+  <si>
+    <t>Candlebox - Surrendering'</t>
+  </si>
+  <si>
+    <t>Catfolkin - Odi A La Barretina'</t>
+  </si>
+  <si>
+    <t>Catfolkin - Sant Jordi v2.0'</t>
+  </si>
+  <si>
+    <t>CEF Mallorca GSSII 2017-18 Sessions - Viviendo Del Reves'</t>
+  </si>
+  <si>
+    <t>Chris Coltraine - Heather Jane'</t>
+  </si>
+  <si>
+    <t>Chris Coltraine - That's How I Got To Memphis</t>
+  </si>
+  <si>
+    <t>Chris Durban - Celebrate'</t>
+  </si>
+  <si>
+    <t>Cnoc An Tursa - Bannockburn'</t>
+  </si>
+  <si>
+    <t>Colebrook Road - Bright Angel'</t>
+  </si>
+  <si>
+    <t>Colton Benjamin - 21 Grams'</t>
+  </si>
+  <si>
+    <t>Colton Benjamin - Can't Let You Go</t>
+  </si>
+  <si>
+    <t>Colton Benjamin - Sail Away'</t>
+  </si>
+  <si>
+    <t>Cotton Drifting - Rainy Day II'</t>
+  </si>
+  <si>
+    <t>cryonicPAX - Another Way'</t>
+  </si>
+  <si>
+    <t>cryonicPAX - Excessive'</t>
+  </si>
+  <si>
+    <t>cryonicPAX - Hold Me'</t>
+  </si>
+  <si>
+    <t>cryonicPAX - Melancholy'</t>
+  </si>
+  <si>
+    <t>Cunegonda - Guerra Alla Frontiera'</t>
+  </si>
+  <si>
+    <t>Cyrille Aimée - Make You Dance'</t>
+  </si>
+  <si>
+    <t>Dark Ride - Burning Bridges'</t>
+  </si>
+  <si>
+    <t>Dark Ride - Dead Enemies'</t>
+  </si>
+  <si>
+    <t>Dark Ride - Deny Control'</t>
+  </si>
+  <si>
+    <t>Dark Ride - Hammer Down'</t>
+  </si>
+  <si>
+    <t>Dark Ride - Piece Of Me'</t>
+  </si>
+  <si>
+    <t>David Crosby - The Things We Do For Love'</t>
+  </si>
+  <si>
+    <t>David Tyo - It's So Easy To Love You</t>
+  </si>
+  <si>
+    <t>David Tyo - Long Way Home'</t>
+  </si>
+  <si>
+    <t>David Tyo - Never Ebb But Flow'</t>
+  </si>
+  <si>
+    <t>David Tyo - Oh Life'</t>
+  </si>
+  <si>
+    <t>David Youngs - Dust You And Me'</t>
+  </si>
+  <si>
+    <t>David Youngs - Long Overdue'</t>
+  </si>
+  <si>
+    <t>David Youngs - Technomantra'</t>
+  </si>
+  <si>
+    <t>Death Of A Romantic - The Well'</t>
+  </si>
+  <si>
+    <t>Decypher - Unseen'</t>
+  </si>
+  <si>
+    <t>Diesel13 - Colour Me Red'</t>
+  </si>
+  <si>
+    <t>Diesel13 - Roar'</t>
+  </si>
+  <si>
+    <t>Digital Humans - Electrvm'</t>
+  </si>
+  <si>
+    <t>Digital Humans - Relentlessly'</t>
+  </si>
+  <si>
+    <t>Dino On The Loose - Queen's Light</t>
+  </si>
+  <si>
+    <t>Don Camillo Choir - The Marsh Marigold's Song</t>
+  </si>
+  <si>
+    <t>Don Camillo Choir - The Woodworm Song'</t>
+  </si>
+  <si>
+    <t>Don Camillo Choir - Trude The Bumblebee'</t>
+  </si>
+  <si>
+    <t>Drumtracks - Ghost Bitch'</t>
+  </si>
+  <si>
+    <t>Dry Clean Only - Iron Sheik'</t>
+  </si>
+  <si>
+    <t>Dunning Kruger - EnDance'</t>
+  </si>
+  <si>
+    <t>Dunning Kruger - Japan Song'</t>
+  </si>
+  <si>
+    <t>Dunning Kruger - Sascha'</t>
+  </si>
+  <si>
+    <t>Eager Sails - Post Rock Is Dumb'</t>
+  </si>
+  <si>
+    <t>Eager Sails - The Last Elm'</t>
   </si>
   <si>
     <t>Eat The Feeder - Today's The Day</t>
   </si>
   <si>
-    <t>Banned From The Zoo - Turn On Me</t>
-  </si>
-  <si>
-    <t>James May - Don't Let Go</t>
-  </si>
-  <si>
-    <t>Jet B - To The Wolves</t>
-  </si>
-  <si>
-    <t>Ben Carrigan - Hey Carrie Anne</t>
-  </si>
-  <si>
-    <t>James May - Eliza Jane</t>
-  </si>
-  <si>
-    <t>West End Blend - Must Be Voodoo</t>
-  </si>
-  <si>
-    <t>Ben Carrigan - We'll Talk About It All Tonight</t>
-  </si>
-  <si>
-    <t>James May - Hold On You</t>
-  </si>
-  <si>
-    <t>Bravestar - Downtempo</t>
-  </si>
-  <si>
-    <t>Bobby Nobody - Stitch Up</t>
-  </si>
-  <si>
-    <t>James May - If You Say</t>
-  </si>
-  <si>
-    <t>Remember December - C U Next Time</t>
-  </si>
-  <si>
-    <t>Buitraker - Revo X</t>
-  </si>
-  <si>
-    <t>James May - On The Line</t>
-  </si>
-  <si>
-    <t>Street Noise - You Are The One</t>
-  </si>
-  <si>
-    <t>Carlitos Gonzalez - A Place For Us</t>
-  </si>
-  <si>
-    <t>Johnny Lokke - Promises &amp; Lies</t>
-  </si>
-  <si>
-    <t>Eager Sails - The Last Elm</t>
-  </si>
-  <si>
-    <t>Carol Dant - Do Not Stand</t>
-  </si>
-  <si>
-    <t>Johnny Lokke - Whisper To A Scream</t>
-  </si>
-  <si>
-    <t>Voelund - Comfort Lives In Belief</t>
-  </si>
-  <si>
-    <t>Carol Dant - I Am The Desert</t>
-  </si>
-  <si>
-    <t>Leaf - Come Around</t>
-  </si>
-  <si>
-    <t>Nicki Bluhm &amp; The Gramblers - Go Go Go</t>
-  </si>
-  <si>
-    <t>Detsky Sad - Walkie Talkie</t>
-  </si>
-  <si>
-    <t>Leaf - Summerghost</t>
-  </si>
-  <si>
-    <t>Joanna Ward - Away</t>
-  </si>
-  <si>
-    <t>Finlay - Same Kind Of Life</t>
-  </si>
-  <si>
-    <t>Leaf - Wicked</t>
-  </si>
-  <si>
-    <t>Allen Stone - Naturally</t>
-  </si>
-  <si>
-    <t>Forkupines - Semantics</t>
-  </si>
-  <si>
-    <t>Pepelpovetru - Tochka</t>
-  </si>
-  <si>
-    <t>How To Kill A Conversation - Mute</t>
-  </si>
-  <si>
-    <t>Forkupines - Sleep By The Fire Bloom In Water</t>
-  </si>
-  <si>
-    <t>Traffic Experiment - Once More (With Feeling)</t>
-  </si>
-  <si>
-    <t>Tommy Marcinek - Happy Blues</t>
-  </si>
-  <si>
-    <t>Forkupines - Sugar - Faith</t>
-  </si>
-  <si>
-    <t>Traffic Experiment - Sirens</t>
-  </si>
-  <si>
-    <t>Bosnian Rainbows - Morning Sickness</t>
-  </si>
-  <si>
-    <t>Georgia Wonder - Siren</t>
-  </si>
-  <si>
-    <t>Triviul - Alright</t>
-  </si>
-  <si>
-    <t>Zane Carney &amp; Friends - Talk To Me Baby</t>
-  </si>
-  <si>
-    <t>Girls Under Glass - We Feel Alright</t>
-  </si>
-  <si>
-    <t>Triviul - Angelsaint</t>
-  </si>
-  <si>
-    <t>Lindy Hip Big Band - The Opener</t>
-  </si>
-  <si>
-    <t>Hollow Ground - Ill Fate</t>
-  </si>
-  <si>
-    <t>Triviul - Better</t>
-  </si>
-  <si>
-    <t>Skelpolu - Human Mistakes</t>
-  </si>
-  <si>
-    <t>Hollow Ground - Left Blind</t>
-  </si>
-  <si>
-    <t>Triviul - Dorothy</t>
-  </si>
-  <si>
-    <t>The Complainiacs - Etc</t>
-  </si>
-  <si>
-    <t>James Elder &amp; Mark M Thompson - The English Actor</t>
-  </si>
-  <si>
-    <t>Triviul - Gimme</t>
-  </si>
-  <si>
-    <t>Asam Classical Soloists - G.F.Handel's Non Lo Diro Col Labbro</t>
-  </si>
-  <si>
-    <t>Juliet's Rescue - Heartbeats</t>
-  </si>
-  <si>
-    <t>Triviul - To Sam Rawfers</t>
+    <t>Eat The Feeder - Wickerman'</t>
+  </si>
+  <si>
+    <t>Eddie Garrido - 5th Floor'</t>
+  </si>
+  <si>
+    <t>Eddie Garrido - Africa'</t>
+  </si>
+  <si>
+    <t>Eddie Garrido - Scarlett'</t>
+  </si>
+  <si>
+    <t>Eddie Garrido - Una Semana Sin Ti'</t>
+  </si>
+  <si>
+    <t>Eduard Semenov - Big Man's Death</t>
+  </si>
+  <si>
+    <t>Eduard Semenov - River Of The White Gloom'</t>
+  </si>
+  <si>
+    <t>Egda Carolyn - Saudade Do Teu Beijo'</t>
+  </si>
+  <si>
+    <t>E J Rios - Echo (feat. Analise Rios)'</t>
+  </si>
+  <si>
+    <t>Enda Reilly - An Nasc Nua'</t>
+  </si>
+  <si>
+    <t>Enda Reilly - Cur An Long Ag Seol'</t>
+  </si>
+  <si>
+    <t>Enter The Haggis - Two Bare Hands'</t>
+  </si>
+  <si>
+    <t>Ethan Winer - Cello Concerto in A Minor'</t>
+  </si>
+  <si>
+    <t>Evening Darling - Passenger Side'</t>
+  </si>
+  <si>
+    <t>FIN - Echoes'</t>
+  </si>
+  <si>
+    <t>Flags - 54'</t>
+  </si>
+  <si>
+    <t>Francisco Perez - Spaces'</t>
+  </si>
+  <si>
+    <t>Fredy V - Not Alone'</t>
+  </si>
+  <si>
+    <t>Fruition - Santa Fe'</t>
+  </si>
+  <si>
+    <t>Funky Dawgs Brass Band - Place 2 Be'</t>
+  </si>
+  <si>
+    <t>Fytakyte - Bitter'</t>
+  </si>
+  <si>
+    <t>Fytakyte - Life Gets In The Way'</t>
+  </si>
+  <si>
+    <t>Fytakyte - Outa Control'</t>
+  </si>
+  <si>
+    <t>Galias - Horizon'</t>
+  </si>
+  <si>
+    <t>G-Bass Project - New Day Dawning'</t>
+  </si>
+  <si>
+    <t>G-Bass Project - You Make Me Smile'</t>
+  </si>
+  <si>
+    <t>Geometría Chicken - Chasque'</t>
+  </si>
+  <si>
+    <t>Geometría Chicken - Das Funkeren'</t>
+  </si>
+  <si>
+    <t>Geometría Chicken - Incidente En Intag'</t>
+  </si>
+  <si>
+    <t>Geometría Chicken - Tubos De Cristal Tela Adhesiva Y Grapas'</t>
+  </si>
+  <si>
+    <t>Ghostly Beard - A Reason To Leave'</t>
+  </si>
+  <si>
+    <t>Ghostly Beard - Blue'</t>
+  </si>
+  <si>
+    <t>Ghostly Beard - Fool'</t>
+  </si>
+  <si>
+    <t>Ghostly Beard - Set Me Free'</t>
+  </si>
+  <si>
+    <t>Ghostly Beard - Upper Hand'</t>
+  </si>
+  <si>
+    <t>Ghost Note - Ja Make Ya Dance'</t>
+  </si>
+  <si>
+    <t>Glen McPhee - A Sailor Once More'</t>
+  </si>
+  <si>
+    <t>Guarna - Ancora Qui'</t>
+  </si>
+  <si>
+    <t>Guarna - Nuvole'</t>
+  </si>
+  <si>
+    <t>Guarna - Parole Vuote'</t>
+  </si>
+  <si>
+    <t>Hannes Keseberg - You Know Better'</t>
+  </si>
+  <si>
+    <t>Headwound Harry - XXXV'</t>
+  </si>
+  <si>
+    <t>Hollowstate - Gravediggers'</t>
+  </si>
+  <si>
+    <t>H-owl Project - If I Were A Bell'</t>
+  </si>
+  <si>
+    <t>How To Kill A Conversation - Heart On My Thumb'</t>
+  </si>
+  <si>
+    <t>How To Kill A Conversation - Location Location'</t>
+  </si>
+  <si>
+    <t>How To Kill A Conversation - Mute'</t>
+  </si>
+  <si>
+    <t>How To Kill A Conversation - Oil'</t>
+  </si>
+  <si>
+    <t>How To Kill A Conversation - Showmonster'</t>
+  </si>
+  <si>
+    <t>Human Radio - You &amp; Me &amp; The Radio'</t>
+  </si>
+  <si>
+    <t>Hurray For The Riff Raff - Living In The City'</t>
+  </si>
+  <si>
+    <t>Ian Dearden - Terania Creek Walking'</t>
+  </si>
+  <si>
+    <t>Ian Dearden - Thursday Reverie'</t>
+  </si>
+  <si>
+    <t>Ikebe Shakedown - The Last Stand'</t>
+  </si>
+  <si>
+    <t>Ilmari Kontia - Funkkihillo'</t>
+  </si>
+  <si>
+    <t>Imp Act - Another Life'</t>
+  </si>
+  <si>
+    <t>Imp Act - Back In Time'</t>
+  </si>
+  <si>
+    <t>Imp Act - The Island Of Alsocanla'</t>
+  </si>
+  <si>
+    <t>impossible c o l o u r s - Dune Rider'</t>
+  </si>
+  <si>
+    <t>impossible c o l o u r s - The Truth'</t>
+  </si>
+  <si>
+    <t>In This Place - 1125'</t>
+  </si>
+  <si>
+    <t>J0K3R - September Trance'</t>
+  </si>
+  <si>
+    <t>Jackie Greene - Don't Let The Devil Take Your Mind</t>
+  </si>
+  <si>
+    <t>Jade Safirah - Paraisso'</t>
+  </si>
+  <si>
+    <t>James Fabio - Machines On Treadmills'</t>
+  </si>
+  <si>
+    <t>James Timms x Benjamin Coosemans - Can You Say The Same'</t>
+  </si>
+  <si>
+    <t>Jamie Kent - All American Mutt'</t>
+  </si>
+  <si>
+    <t>Jay Menon - Through My Eyes'</t>
+  </si>
+  <si>
+    <t>Jeffrey Hayat - Alex The Adventurer'</t>
+  </si>
+  <si>
+    <t>Jesper Buhl Trio - What Is This Thing Called Love'</t>
+  </si>
+  <si>
+    <t>Jesse Joy - Nearly There'</t>
+  </si>
+  <si>
+    <t>Jesse Joy - Release'</t>
+  </si>
+  <si>
+    <t>Jessica Childress - Slow Down'</t>
+  </si>
+  <si>
+    <t>Jet B - Suit You'</t>
+  </si>
+  <si>
+    <t>Jet B - To The Wolves'</t>
+  </si>
+  <si>
+    <t>Joanna Ward - Away'</t>
+  </si>
+  <si>
+    <t>John A Ardelli - Asiza'</t>
+  </si>
+  <si>
+    <t>John McKay - Daisy Daisy'</t>
+  </si>
+  <si>
+    <t>Jokers - Sea Of Leaves'</t>
+  </si>
+  <si>
+    <t>J P Lantieri - Chardonnay'</t>
+  </si>
+  <si>
+    <t>J P Lantieri - Chardonnay (Lektrix Remix)'</t>
+  </si>
+  <si>
+    <t>J P Lantieri - Chardonnay (Mystik Vibe Remix)'</t>
+  </si>
+  <si>
+    <t>J P Lantieri - Chardonnay (Ornery Remix)'</t>
+  </si>
+  <si>
+    <t>J P Lantieri - Riesling'</t>
+  </si>
+  <si>
+    <t>Juanita Dientes Verdes - Dios Salve El R&amp;R - Cielo Sin Santos'</t>
+  </si>
+  <si>
+    <t>Juanita Dientes Verdes - Donde No Llega La Luz'</t>
+  </si>
+  <si>
+    <t>Juanita Dientes Verdes - Placido Domingo'</t>
+  </si>
+  <si>
+    <t>Jules King - Never Stop'</t>
+  </si>
+  <si>
+    <t>Justin Myles - Alone With You'</t>
+  </si>
+  <si>
+    <t>Kangoro - Animal'</t>
+  </si>
+  <si>
+    <t>Kangoro - Bitch Is Paranoid'</t>
+  </si>
+  <si>
+    <t>Kangoro - Clinic A'</t>
+  </si>
+  <si>
+    <t>Kangoro - Easy Tiger'</t>
+  </si>
+  <si>
+    <t>Kangoro - King Rascal'</t>
+  </si>
+  <si>
+    <t>Kangoro - Rockshow'</t>
+  </si>
+  <si>
+    <t>Karl Hungus - Got Your Love'</t>
+  </si>
+  <si>
+    <t>Kat Wright - By My Side'</t>
+  </si>
+  <si>
+    <t>Kat Wright - Contact'</t>
+  </si>
+  <si>
+    <t>Keystone Angel - Afterglow'</t>
+  </si>
+  <si>
+    <t>King's College London Baroque Orchestra - Telemann's La Lyra Overture</t>
+  </si>
+  <si>
+    <t>Kung Fu - Daddy D'</t>
+  </si>
+  <si>
+    <t>Kung Fu - Joy Ride'</t>
+  </si>
+  <si>
+    <t>Last Legacy - Who's Who In Hell</t>
+  </si>
+  <si>
+    <t>Lead Inc - The Dice'</t>
+  </si>
+  <si>
+    <t>Lead Inc - The Inner Circle'</t>
+  </si>
+  <si>
+    <t>Lead Inc - Way Of Life'</t>
+  </si>
+  <si>
+    <t>Leftover Salmon - River's Risin</t>
+  </si>
+  <si>
+    <t>Leslie Mendelson - The Hardest Part'</t>
+  </si>
+  <si>
+    <t>Lindy Hip Big Band - Makin' Whoopee</t>
+  </si>
+  <si>
+    <t>Lindy Hip Big Band - The Opener'</t>
+  </si>
+  <si>
+    <t>Lingua Funqa - Just One Minute'</t>
+  </si>
+  <si>
+    <t>Lorenzo Price - Changing Things (Dorian'\''s Song)'</t>
+  </si>
+  <si>
+    <t>Ludø - Sandstorm'</t>
+  </si>
+  <si>
+    <t>Mady &amp; Seus Namorados - Pirarucumbia'</t>
   </si>
   <si>
     <t>Magician's Nephew - Get Out Of Bed</t>
   </si>
   <si>
-    <t>Little Chicago's Finest - My Own</t>
-  </si>
-  <si>
-    <t>Triviul - Widow (feat. The Fiend)</t>
-  </si>
-  <si>
-    <t>One Time Weekend - One Time Weekend</t>
-  </si>
-  <si>
-    <t>Louis Cressy Band - Good Time</t>
-  </si>
-  <si>
-    <t>Young Griffo - Blood To Bone</t>
-  </si>
-  <si>
-    <t>Dunning Kruger - EnDance</t>
-  </si>
-  <si>
-    <t>Lyndsey Ollard - Catching Up</t>
-  </si>
-  <si>
-    <t>Young Griffo - Facade</t>
-  </si>
-  <si>
-    <t>Titanium - Haunted Age</t>
-  </si>
-  <si>
-    <t>M.E.R.C. Music - Knockout</t>
-  </si>
-  <si>
-    <t>Young Griffo - Pennies</t>
-  </si>
-  <si>
-    <t>Albert Kader - Whiptails</t>
-  </si>
-  <si>
-    <t>Moosmusic - Big Dummy Shake</t>
-  </si>
-  <si>
-    <t>The Black Crown - Flames</t>
-  </si>
-  <si>
-    <t>Motor Tapes - Shore</t>
-  </si>
-  <si>
-    <t>Brian C Cai Fei Hong - Never Let You Go</t>
-  </si>
-  <si>
-    <t>Mu - Too Bright</t>
-  </si>
-  <si>
-    <t>Ethan Winer - Cello Concerto in A Minor</t>
-  </si>
-  <si>
-    <t>Nerve 9 - Living Lie</t>
-  </si>
-  <si>
-    <t>Sonnet &amp; Alcohol - Back To The Nineties</t>
-  </si>
-  <si>
-    <t>Nerve 9 - Pray For The Rain</t>
-  </si>
-  <si>
-    <t>J P Lantieri - Chardonnay (Lektrix Remix)</t>
-  </si>
-  <si>
-    <t>Punkdisco - Oral Hygiene</t>
-  </si>
-  <si>
-    <t>Plan Caliente - El Marinero</t>
-  </si>
-  <si>
-    <t>Raft Monk - Tiring</t>
-  </si>
-  <si>
-    <t>Dino On The Loose - Queen's Light</t>
-  </si>
-  <si>
-    <t>Sambasevam Shanmugam - Kaathaadi</t>
-  </si>
-  <si>
-    <t>Skyeez &amp; The Whiteflies - Banana Split</t>
-  </si>
-  <si>
-    <t>Side Effects Project - Sing With Me</t>
-  </si>
-  <si>
-    <t>Jesper Buhl Trio - What Is This Thing Called Love</t>
-  </si>
-  <si>
-    <t>Signe Jakobsen - What Have You Done To Me</t>
-  </si>
-  <si>
-    <t>Dark Ride - Burning Bridges</t>
-  </si>
-  <si>
-    <t>Speak Softly - Broken Man</t>
-  </si>
-  <si>
-    <t>The Lonely Wild - Scar</t>
-  </si>
-  <si>
-    <t>The Doppler Shift - Atrophy</t>
-  </si>
-  <si>
-    <t>Perpetual Escape - Duty &amp; Memories</t>
-  </si>
-  <si>
-    <t>The Mountaineering Club - Mallory</t>
-  </si>
-  <si>
-    <t>Ruby Roads - Rat Race</t>
-  </si>
-  <si>
-    <t>The Sunshine Garcia Band - For I Am The Moon</t>
-  </si>
-  <si>
-    <t>Kangoro - Bitch Is Paranoid</t>
-  </si>
-  <si>
-    <t>Timboz - Pony</t>
-  </si>
-  <si>
-    <t>How To Kill A Conversation - Location Location</t>
-  </si>
-  <si>
-    <t>Tom McKenzie - Directions</t>
-  </si>
-  <si>
-    <t>cryonicPAX - Melancholy</t>
-  </si>
-  <si>
-    <t>W.I.N.D. - Funky To The Bone</t>
-  </si>
-  <si>
-    <t>Dark Ride - Deny Control</t>
-  </si>
-  <si>
-    <t>W.I.N.D. - Temporary Happiness</t>
-  </si>
-  <si>
-    <t>The Balazs Daniel Boogie Woogie Trio - Own Way To Boogie</t>
-  </si>
-  <si>
-    <t>We Fell From The Sky - Not You</t>
-  </si>
-  <si>
-    <t>Boogiesnakes - It's My Right</t>
-  </si>
-  <si>
-    <t>Zeno - Signs</t>
-  </si>
-  <si>
-    <t>MekaPhil - Timeless (Part 2)</t>
-  </si>
-  <si>
-    <t>Babe Grand - Aiguille Rouge</t>
-  </si>
-  <si>
-    <t>Szymon Skiba - Some Trashy Thrash I Guess</t>
-  </si>
-  <si>
-    <t>Andres Guazzelli - Flores De Abril</t>
-  </si>
-  <si>
-    <t>Szymon Skiba - Death Metal Sucks</t>
-  </si>
-  <si>
-    <t>The Maybe Next Years - One Flip Flop</t>
-  </si>
-  <si>
-    <t>Neuromantic - The Calm</t>
-  </si>
-  <si>
-    <t>The Butterfly Effect - An Ultra Violet Apology</t>
-  </si>
-  <si>
-    <t>North To Alaska - All The Same</t>
-  </si>
-  <si>
-    <t>Geometría Chicken - Tubos De Cristal Tela Adhesiva Y Grapas</t>
-  </si>
-  <si>
-    <t>Jackie Greene - Don't Let The Devil Take Your Mind</t>
-  </si>
-  <si>
-    <t>V.M.GY - Omen</t>
-  </si>
-  <si>
-    <t>St Vitus - Word Gets Around</t>
-  </si>
-  <si>
-    <t>Lindy Hip Big Band - Makin' Whoopee</t>
-  </si>
-  <si>
-    <t>Monsieur Periné - Encanto Tropical</t>
-  </si>
-  <si>
-    <t>Dark Ride - Dead Enemies</t>
-  </si>
-  <si>
-    <t>Jamie Kent - All American Mutt</t>
-  </si>
-  <si>
-    <t>V.M.GY - Equilibrium</t>
-  </si>
-  <si>
-    <t>Secretariat - Over The Top</t>
+    <t>Magician's Nephew - Symphony Of Silence</t>
+  </si>
+  <si>
+    <t>Major Lazer - Light It Up'</t>
+  </si>
+  <si>
+    <t>Major Lazer - Light It Up (Remix)'</t>
+  </si>
+  <si>
+    <t>Malenky Slovos - Matterplay'</t>
+  </si>
+  <si>
+    <t>Man About A Dog - Maggie May'</t>
+  </si>
+  <si>
+    <t>Marcus Boeltz - Shut Up And Play'</t>
+  </si>
+  <si>
+    <t>Maurizio Pagnutti Sextet - All The Gin Is Gone'</t>
+  </si>
+  <si>
+    <t>Maurizio Pagnutti Sextet - Bess'</t>
   </si>
   <si>
     <t>McLovins - Buildin' It Up</t>
   </si>
   <si>
-    <t>Ghostly Beard - A Reason To Leave</t>
-  </si>
-  <si>
-    <t>cryonicPAX - Another Way</t>
-  </si>
-  <si>
-    <t>Stefano Petrocca - Foundation</t>
-  </si>
-  <si>
-    <t>Eduard Semenov - River Of The White Gloom</t>
-  </si>
-  <si>
-    <t>Big Mean Sound Machine - Contraband</t>
-  </si>
-  <si>
-    <t>Street Noise - Revelations</t>
-  </si>
-  <si>
-    <t>Ajay Nagarkoti &amp; Vibhu Dixit - Ae Mere Humsafar</t>
-  </si>
-  <si>
-    <t>Don Camillo Choir - The Marsh Marigold's Song</t>
-  </si>
-  <si>
-    <t>Barnstar! - Believer</t>
-  </si>
-  <si>
-    <t>E J Rios - Echo (feat. Analise Rios)</t>
-  </si>
-  <si>
-    <t>Mistrusted - Polemic</t>
-  </si>
-  <si>
-    <t>The Mountaineering Club Orchestra - Cruising The Ice</t>
-  </si>
-  <si>
-    <t>David Youngs - Technomantra</t>
-  </si>
-  <si>
-    <t>Primakova - The Glass</t>
-  </si>
-  <si>
-    <t>Big Head Todd &amp; The Monsters - Hey Delilah</t>
-  </si>
-  <si>
-    <t>Death Of A Romantic - The Well</t>
-  </si>
-  <si>
-    <t>Rubblebucket - Carousel Ride</t>
+    <t>MekaPhil - Alive (Yet Free)'</t>
+  </si>
+  <si>
+    <t>MekaPhil - Timeless (Part 2)'</t>
+  </si>
+  <si>
+    <t>Mike Skalandunas - Sun Drenched'</t>
+  </si>
+  <si>
+    <t>Mirroman - Fever'</t>
+  </si>
+  <si>
+    <t>Mistrusted - Carnival Charade'</t>
+  </si>
+  <si>
+    <t>Mistrusted - Cascade'</t>
+  </si>
+  <si>
+    <t>Mistrusted - Polemic'</t>
+  </si>
+  <si>
+    <t>Mistrusted - Trapped'</t>
+  </si>
+  <si>
+    <t>Monsieur Periné - Encanto Tropical'</t>
+  </si>
+  <si>
+    <t>Mustafa Albazy - Shela Ya Marhaba'</t>
+  </si>
+  <si>
+    <t>Mustafa Albazy - Tgheer'</t>
+  </si>
+  <si>
+    <t>Nahum Strickland - Steampunk Siege'</t>
+  </si>
+  <si>
+    <t>Neon Hornet - Take It Off'</t>
+  </si>
+  <si>
+    <t>Nervbloc - Slapback'</t>
+  </si>
+  <si>
+    <t>Neuromantic - The Calm'</t>
+  </si>
+  <si>
+    <t>Nicki Bluhm &amp; The Gramblers - Go Go Go'</t>
+  </si>
+  <si>
+    <t>Nikola Stajic feat. Vlasis Kostas - Nalim'</t>
+  </si>
+  <si>
+    <t>Nominal6 - Escape Of The Hopping Rhinos'</t>
+  </si>
+  <si>
+    <t>North To Alaska - All The Same'</t>
+  </si>
+  <si>
+    <t>Nova-One Studio - Four Graham'</t>
+  </si>
+  <si>
+    <t>Nzca Lines - Pure Luxury'</t>
+  </si>
+  <si>
+    <t>OctopusOnFire - Russian Bot'</t>
+  </si>
+  <si>
+    <t>Öjebokören - That's Entertainment</t>
+  </si>
+  <si>
+    <t>One Time Weekend - One Time Weekend'</t>
+  </si>
+  <si>
+    <t>oxeye - Sorry'</t>
+  </si>
+  <si>
+    <t>Pablo Martin - Progresivo 1 El Vuelo'</t>
+  </si>
+  <si>
+    <t>Painted Skies - Piers'</t>
+  </si>
+  <si>
+    <t>Pandemia eRock - Macaco Regresso'</t>
+  </si>
+  <si>
+    <t>Pawel Maciwoda - 1 Of The First'</t>
+  </si>
+  <si>
+    <t>Perdidos Na Zona Sul - Meu Bem'</t>
+  </si>
+  <si>
+    <t>Perpetual Escape - Duty &amp; Memories'</t>
+  </si>
+  <si>
+    <t>Perpetual Escape - Into My Dreams'</t>
+  </si>
+  <si>
+    <t>Perpetual Escape - Roots Of Mankind'</t>
+  </si>
+  <si>
+    <t>Perpetual Escape - Sin Six'</t>
+  </si>
+  <si>
+    <t>Perpetual Escape - Stop And Rise'</t>
+  </si>
+  <si>
+    <t>Peter White - Crazy Girl'</t>
+  </si>
+  <si>
+    <t>Peter White - The Blues Is A Lady'</t>
+  </si>
+  <si>
+    <t>Phre The Eon - Everybody's Falling Apart</t>
+  </si>
+  <si>
+    <t>Plan Caliente - El Marinero'</t>
+  </si>
+  <si>
+    <t>Plywood Cowboy - Last Night's Gig</t>
+  </si>
+  <si>
+    <t>Pretty Saro - Carolina In The Pines'</t>
+  </si>
+  <si>
+    <t>Primakova - The Glass'</t>
+  </si>
+  <si>
+    <t>Purple Hat Mob - Access Denied'</t>
+  </si>
+  <si>
+    <t>Qupe - Ayni Nehirde'</t>
+  </si>
+  <si>
+    <t>Random Somebody - Crazy For Me'</t>
+  </si>
+  <si>
+    <t>Rattletree - Just Let It Go'</t>
+  </si>
+  <si>
+    <t>Rebuild The Evil - Burial Of Silence'</t>
+  </si>
+  <si>
+    <t>Remember December - C U Next Time'</t>
+  </si>
+  <si>
+    <t>Remember Jones - Don't Put Me On Hold</t>
+  </si>
+  <si>
+    <t>Ricardo Santiago - Dream No. 12'</t>
+  </si>
+  <si>
+    <t>Ricardo Santiago - Let The Music Fade Away'</t>
+  </si>
+  <si>
+    <t>Ricky Legend - Comet'</t>
+  </si>
+  <si>
+    <t>Ricky Legend - Going To The Moon'</t>
+  </si>
+  <si>
+    <t>Ripe - 4 Out Of 10'</t>
+  </si>
+  <si>
+    <t>Ripe - Little Lighter'</t>
+  </si>
+  <si>
+    <t>Robert Hammon - The Elephant'</t>
+  </si>
+  <si>
+    <t>Rod Alexander - Pachebel's Canon</t>
+  </si>
+  <si>
+    <t>Rod Alexander - Tears In The Rain'</t>
+  </si>
+  <si>
+    <t>Ronnie Jones - Why Don't You Stay</t>
+  </si>
+  <si>
+    <t>Rovers Ahead - It's In These Times</t>
+  </si>
+  <si>
+    <t>Rubblebucket - Carousel Ride'</t>
+  </si>
+  <si>
+    <t>Ruby Roads - Rat Race'</t>
+  </si>
+  <si>
+    <t>Ryan Cali - Back Down'</t>
+  </si>
+  <si>
+    <t>Ryan Cali - Crazy'</t>
+  </si>
+  <si>
+    <t>Santi Vega - Ying Yang'</t>
+  </si>
+  <si>
+    <t>Scott Elliott - Aeternum Vale'</t>
+  </si>
+  <si>
+    <t>Secretariat - Borderline'</t>
+  </si>
+  <si>
+    <t>Secretariat - Homebound'</t>
+  </si>
+  <si>
+    <t>Secretariat - Over The Top'</t>
+  </si>
+  <si>
+    <t>Selwyn Jazz - Bill Ashton's Much Too Much</t>
+  </si>
+  <si>
+    <t>Silence Is Near - The Forthcoming Turn'</t>
+  </si>
+  <si>
+    <t>Silona - Learning How To Fly'</t>
+  </si>
+  <si>
+    <t>Simon Lyn - Copper'</t>
+  </si>
+  <si>
+    <t>Six Fox Whiskey - Hope And The Sea'</t>
+  </si>
+  <si>
+    <t>Skelpolu - Anomalous Weeping'</t>
+  </si>
+  <si>
+    <t>Skelpolu - Cold Strive'</t>
+  </si>
+  <si>
+    <t>Skelpolu - Entwine'</t>
+  </si>
+  <si>
+    <t>Skelpolu - Human Mistakes'</t>
+  </si>
+  <si>
+    <t>Skelpolu - Long Road'</t>
+  </si>
+  <si>
+    <t>Skelpolu - Resurrection Resurrected'</t>
+  </si>
+  <si>
+    <t>Skelpolu - Together Alone'</t>
+  </si>
+  <si>
+    <t>Skyeez &amp; The Whiteflies - Banana Split'</t>
+  </si>
+  <si>
+    <t>Skyeez &amp; The Whiteflies - Jump Across'</t>
+  </si>
+  <si>
+    <t>Sonnet &amp; Alcohol - Back To The Nineties'</t>
+  </si>
+  <si>
+    <t>Sound On Sound Demo - Mystery'</t>
+  </si>
+  <si>
+    <t>Spektakulatius - Christmas Blues'</t>
+  </si>
+  <si>
+    <t>Spektakulatius - Is You Is Or Is You Ain't</t>
+  </si>
+  <si>
+    <t>Spektakulatius - Jeden Winter'</t>
+  </si>
+  <si>
+    <t>Spektakulatius - Our Love Is Here To Stay'</t>
+  </si>
+  <si>
+    <t>Spektakulatius - Wayfaring Stranger'</t>
+  </si>
+  <si>
+    <t>Spektakulatius - What Child Is This'</t>
+  </si>
+  <si>
+    <t>Spike Mullings - Mike's Sulking</t>
+  </si>
+  <si>
+    <t>Starnes &amp; Shah - Prodigal'</t>
+  </si>
+  <si>
+    <t>Stefano Petrocca - Foundation'</t>
+  </si>
+  <si>
+    <t>Storm Of Particles - Of Ice And Hopeless Fate'</t>
+  </si>
+  <si>
+    <t>Street Noise - I'd Rather Be Drinkin</t>
+  </si>
+  <si>
+    <t>Street Noise - Revelations'</t>
+  </si>
+  <si>
+    <t>Street Noise - You Are The One'</t>
+  </si>
+  <si>
+    <t>Strobe - Gone'</t>
+  </si>
+  <si>
+    <t>Strobe - Maya'</t>
+  </si>
+  <si>
+    <t>Strobe - Nostalgic'</t>
+  </si>
+  <si>
+    <t>St Vitus - Word Gets Around'</t>
+  </si>
+  <si>
+    <t>Swing Bazar - Fleche D'Or</t>
+  </si>
+  <si>
+    <t>Swinging Steaks - Lost My Way'</t>
+  </si>
+  <si>
+    <t>Szlachetka - Heart Of My Home Town'</t>
+  </si>
+  <si>
+    <t>Szymon Skiba - Death Metal Sucks'</t>
   </si>
   <si>
     <t>Szymon Skiba - Let's Dance</t>
   </si>
   <si>
-    <t>Woodfire - Get Fooled</t>
-  </si>
-  <si>
-    <t>John A Ardelli - Asiza</t>
-  </si>
-  <si>
-    <t>Turn Back To Spring - Another Day Calling</t>
+    <t>Szymon Skiba - Some Trashy Thrash I Guess'</t>
+  </si>
+  <si>
+    <t>Tall Heights - Spirit Cold'</t>
+  </si>
+  <si>
+    <t>Ted Behrman - Convertible'</t>
+  </si>
+  <si>
+    <t>The Abletones Big Band - Corine Corine'</t>
+  </si>
+  <si>
+    <t>The Abletones Big Band - Song Of India'</t>
+  </si>
+  <si>
+    <t>The Apprehended - Still Flyin'</t>
+  </si>
+  <si>
+    <t>The Balazs Daniel Boogie Woogie Trio - Own Way To Boogie'</t>
+  </si>
+  <si>
+    <t>The Black Crown - Cage'</t>
+  </si>
+  <si>
+    <t>The Black Crown - Flames'</t>
+  </si>
+  <si>
+    <t>The Brew - What I Want'</t>
+  </si>
+  <si>
+    <t>The Butterfly Effect - An Ultra Violet Apology'</t>
+  </si>
+  <si>
+    <t>The Butterfly Effect - Fairytale'</t>
+  </si>
+  <si>
+    <t>The Butterfly Effect - Preach Right Here'</t>
+  </si>
+  <si>
+    <t>The Complainiacs - Etc'</t>
+  </si>
+  <si>
+    <t>The Funny Valentines - Sleigh Ride'</t>
+  </si>
+  <si>
+    <t>The Great Enough - Die Young'</t>
+  </si>
+  <si>
+    <t>The Left Backs - The Feeling'</t>
+  </si>
+  <si>
+    <t>The Lonely Wild - Scar'</t>
+  </si>
+  <si>
+    <t>The Long Wait - Back Home To Blue'</t>
+  </si>
+  <si>
+    <t>The Long Wait - Dark Horses'</t>
+  </si>
+  <si>
+    <t>The Long Wait - Drag'</t>
+  </si>
+  <si>
+    <t>The Long Wait - Lookout Mountain'</t>
+  </si>
+  <si>
+    <t>The Long Wait - Santa'</t>
+  </si>
+  <si>
+    <t>thelvnguage - Kings And Queens'</t>
+  </si>
+  <si>
+    <t>thelvnguage - Raspberry Jam'</t>
+  </si>
+  <si>
+    <t>The Maybe Next Years - One Flip Flop'</t>
+  </si>
+  <si>
+    <t>The Mountaineering Club Orchestra - Cruising The Ice'</t>
+  </si>
+  <si>
+    <t>The Penniless Wild - Seat Back'</t>
+  </si>
+  <si>
+    <t>The Timezone - GOTGF'</t>
+  </si>
+  <si>
+    <t>The Travelling Band - Passing Ships'</t>
+  </si>
+  <si>
+    <t>The Travelling Band - Quicksand'</t>
+  </si>
+  <si>
+    <t>The Western Den - Like You Do'</t>
+  </si>
+  <si>
+    <t>The Wrong'uns - Rothko</t>
+  </si>
+  <si>
+    <t>Tholas P. - Such Fine People'</t>
   </si>
   <si>
     <t>Timo And The Timezone - Just Don't Talk</t>
   </si>
   <si>
-    <t>Mirroman - Fever</t>
-  </si>
-  <si>
-    <t>Kangoro - King Rascal</t>
-  </si>
-  <si>
-    <t>Lorenzo Price - Changing Things (Dorian's Song)</t>
-  </si>
-  <si>
-    <t>The Abletones Big Band - Corine Corine</t>
-  </si>
-  <si>
-    <t>3D-MARCo Project - Piano Solo 1</t>
-  </si>
-  <si>
-    <t>Leslie Mendelson - The Hardest Part</t>
-  </si>
-  <si>
-    <t>Fytakyte - Life Gets In The Way</t>
-  </si>
-  <si>
-    <t>Jesse Joy - Nearly There</t>
-  </si>
-  <si>
-    <t>J P Lantieri - Riesling</t>
-  </si>
-  <si>
-    <t>Selwyn Jazz - Bill Ashton's Much Too Much</t>
-  </si>
-  <si>
-    <t>oxeye - Sorry</t>
-  </si>
-  <si>
-    <t>Blues Bastards - Lights Out!</t>
-  </si>
-  <si>
-    <t>Swing Bazar - Fleche D'Or</t>
-  </si>
-  <si>
-    <t>Geometría Chicken - Das Funkeren</t>
-  </si>
-  <si>
-    <t>The Wrong'uns - Rothko</t>
-  </si>
-  <si>
-    <t>Diesel13 - Colour Me Red</t>
-  </si>
-  <si>
-    <t>David Youngs - Dust You And Me</t>
-  </si>
-  <si>
-    <t>Kangoro - Animal</t>
-  </si>
-  <si>
-    <t>Jules King - Never Stop</t>
-  </si>
-  <si>
-    <t>Hurray For The Riff Raff - Living In The City</t>
-  </si>
-  <si>
-    <t>Big Stone Culture - Fragile Thoughts</t>
-  </si>
-  <si>
-    <t>Nominal6 - Escape Of The Hopping Rhinos</t>
-  </si>
-  <si>
-    <t>Will Evans - Me And My Crew</t>
-  </si>
-  <si>
-    <t>Kangoro - Rockshow</t>
-  </si>
-  <si>
-    <t>Candlebox - Surrendering</t>
-  </si>
-  <si>
-    <t>3D-MARCo Project - String Quartet</t>
-  </si>
-  <si>
-    <t>Secretariat - Homebound</t>
-  </si>
-  <si>
-    <t>Benjamin John - Better Way</t>
-  </si>
-  <si>
-    <t>Lead Inc - The Dice</t>
-  </si>
-  <si>
-    <t>Wall Of Death - Femme</t>
-  </si>
-  <si>
-    <t>Skelpolu - Together Alone</t>
-  </si>
-  <si>
-    <t>Eager Sails - Post Rock Is Dumb</t>
-  </si>
-  <si>
-    <t>Diesel13 - Roar</t>
-  </si>
-  <si>
-    <t>Perpetual Escape - Sin Six</t>
-  </si>
-  <si>
-    <t>Nahum Strickland - Steampunk Siege</t>
-  </si>
-  <si>
-    <t>Bronze Radio Return - Mister Mister</t>
-  </si>
-  <si>
-    <t>Sound On Sound Demo - Mystery</t>
-  </si>
-  <si>
-    <t>Pandemia eRock - Macaco Regresso</t>
-  </si>
-  <si>
-    <t>The Long Wait - Santa</t>
-  </si>
-  <si>
-    <t>Jesse Joy - Release</t>
-  </si>
-  <si>
-    <t>Actions - Devil's Words</t>
-  </si>
-  <si>
-    <t>Fruition - Santa Fe</t>
-  </si>
-  <si>
-    <t>J0K3R - September Trance</t>
-  </si>
-  <si>
-    <t>Kung Fu - Daddy D</t>
-  </si>
-  <si>
-    <t>Spektakulatius - Christmas Blues</t>
-  </si>
-  <si>
-    <t>Pablo Martin - Progresivo 1 El Vuelo</t>
-  </si>
-  <si>
-    <t>Strobe - Gone</t>
-  </si>
-  <si>
-    <t>Maurizio Pagnutti Sextet - All The Gin Is Gone</t>
-  </si>
-  <si>
-    <t>Eddie Garrido - Africa</t>
-  </si>
-  <si>
-    <t>MekaPhil - Alive (Yet Free)</t>
-  </si>
-  <si>
-    <t>How To Kill A Conversation - Showmonster</t>
-  </si>
-  <si>
-    <t>Juanita Dientes Verdes - Donde No Llega La Luz</t>
-  </si>
-  <si>
-    <t>Skelpolu - Anomalous Weeping</t>
-  </si>
-  <si>
-    <t>Hazael - Resistencia Para Un Nuevo Comenzar</t>
-  </si>
-  <si>
-    <t>thelvnguage - Kings And Queens</t>
-  </si>
-  <si>
-    <t>David Youngs - Long Overdue</t>
-  </si>
-  <si>
-    <t>Anna Blanton - Rachel</t>
-  </si>
-  <si>
-    <t>Tholas P. - Such Fine People</t>
-  </si>
-  <si>
-    <t>Fytakyte - Bitter</t>
-  </si>
-  <si>
-    <t>Ghostly Beard - Blue</t>
-  </si>
-  <si>
-    <t>David Tyo - It's So Easy To Love You</t>
-  </si>
-  <si>
-    <t>Ricky Legend - Comet</t>
-  </si>
-  <si>
-    <t>Robert Hammon - The Elephant</t>
-  </si>
-  <si>
-    <t>Ripe - Little Lighter</t>
-  </si>
-  <si>
-    <t>Adam Buckley - Drag me Down</t>
-  </si>
-  <si>
-    <t>V.M.GY - Purgatory</t>
-  </si>
-  <si>
-    <t>Eat The Feeder - Wickerman</t>
-  </si>
-  <si>
-    <t>Santi Vega - Ying Yang</t>
+    <t>Timo Carlier - The Road Ahead'</t>
+  </si>
+  <si>
+    <t>Tim Taler - Stalker'</t>
+  </si>
+  <si>
+    <t>Titanium - Haunted Age'</t>
+  </si>
+  <si>
+    <t>Tommy Marcinek - Happy Blues'</t>
+  </si>
+  <si>
+    <t>Tommy Marcinek - My Childhood Sweetheart'</t>
+  </si>
+  <si>
+    <t>Trafficker - My Father Never Loved Me'</t>
+  </si>
+  <si>
+    <t>Trick Bird - Window'</t>
+  </si>
+  <si>
+    <t>Turbosauro - Magilla'</t>
   </si>
   <si>
     <t>Turkuaz - Lookin' Tough Feelin' Good</t>
   </si>
   <si>
-    <t>Turkuaz - Tip Toe Through The Crypto</t>
-  </si>
-  <si>
-    <t>Bolz &amp; Knecht - Brahms' Hungarian Dance No. 5</t>
-  </si>
-  <si>
-    <t>Guarna - Parole Vuote</t>
-  </si>
-  <si>
-    <t>David Tyo - Long Way Home</t>
-  </si>
-  <si>
-    <t>Anna Blanton - Waves</t>
-  </si>
-  <si>
-    <t>Blue Lit Moon - Dad's Glad</t>
-  </si>
-  <si>
-    <t>Cunegonda - Guerra Alla Frontiera</t>
-  </si>
-  <si>
-    <t>BaumXmedia - Koishii (feat. N.I.A.)</t>
-  </si>
-  <si>
-    <t>Trick Bird - Window</t>
-  </si>
-  <si>
-    <t>The Left Backs - The Feeling</t>
-  </si>
-  <si>
-    <t>Bill Chudziak - Children Of No-one</t>
-  </si>
-  <si>
-    <t>Ricky Legend - Going To The Moon</t>
-  </si>
-  <si>
-    <t>Black Bloc - If You Want Success</t>
-  </si>
-  <si>
-    <t>Ricardo Santiago - Dream No. 12</t>
-  </si>
-  <si>
-    <t>Man About A Dog - Maggie May</t>
-  </si>
-  <si>
-    <t>APZX - Cyber Mower</t>
-  </si>
-  <si>
-    <t>Swinging Steaks - Lost My Way</t>
-  </si>
-  <si>
-    <t>Atlantis Bound - It Was My Fault For Waiting</t>
-  </si>
-  <si>
-    <t>Jessica Childress - Slow Down</t>
-  </si>
-  <si>
-    <t>Human Radio - You &amp; Me &amp; The Radio</t>
-  </si>
-  <si>
-    <t>Strobe - Maya</t>
-  </si>
-  <si>
-    <t>Ryan Cali - Back Down</t>
-  </si>
-  <si>
-    <t>Geometría Chicken - Incidente En Intag</t>
-  </si>
-  <si>
-    <t>Hollowstate - Gravediggers</t>
-  </si>
-  <si>
-    <t>Chris Coltraine - That's How I Got To Memphis</t>
-  </si>
-  <si>
-    <t>Juanita Dientes Verdes - Placido Domingo</t>
-  </si>
-  <si>
-    <t>Cnoc An Tursa - Bannockburn</t>
-  </si>
-  <si>
-    <t>Egda Carolyn - Saudade Do Teu Beijo</t>
-  </si>
-  <si>
-    <t>Enda Reilly - Cur An Long Ag Seol</t>
-  </si>
-  <si>
-    <t>Timo Carlier - The Road Ahead</t>
-  </si>
-  <si>
-    <t>J P Lantieri - Chardonnay</t>
-  </si>
-  <si>
-    <t>Woodfire - Wealthy In Time</t>
-  </si>
-  <si>
-    <t>In This Place - 1125</t>
-  </si>
-  <si>
-    <t>Rod Alexander - Tears In The Rain</t>
-  </si>
-  <si>
-    <t>Jokers - Sea Of Leaves</t>
-  </si>
-  <si>
-    <t>Ghostly Beard - Set Me Free</t>
-  </si>
-  <si>
-    <t>Eddie Garrido - Scarlett</t>
-  </si>
-  <si>
-    <t>David Tyo - Oh Life</t>
-  </si>
-  <si>
-    <t>Kung Fu - Joy Ride</t>
-  </si>
-  <si>
-    <t>Amber Skye - Howlin</t>
-  </si>
-  <si>
-    <t>Candlebox - Happy Pills</t>
-  </si>
-  <si>
-    <t>Kat Wright - Contact</t>
-  </si>
-  <si>
-    <t>The Travelling Band - Quicksand</t>
-  </si>
-  <si>
-    <t>Rovers Ahead - It's In These Times</t>
-  </si>
-  <si>
-    <t>The Travelling Band - Passing Ships</t>
-  </si>
-  <si>
-    <t>OctopusOnFire - Russian Bot</t>
-  </si>
-  <si>
-    <t>Eddie Garrido - Una Semana Sin Ti</t>
-  </si>
-  <si>
-    <t>Ghostly Beard - Upper Hand</t>
-  </si>
-  <si>
-    <t>Mike Skalandunas - Sun Drenched</t>
-  </si>
-  <si>
-    <t>Kat Wright - By My Side</t>
-  </si>
-  <si>
-    <t>Geometría Chicken - Chasque</t>
-  </si>
-  <si>
-    <t>The Long Wait - Back Home To Blue</t>
-  </si>
-  <si>
-    <t>Digital Humans - Electrvm</t>
-  </si>
-  <si>
-    <t>Decypher - Unseen</t>
-  </si>
-  <si>
-    <t>Major Lazer - Light It Up (Remix)</t>
-  </si>
-  <si>
-    <t>Dunning Kruger - Sascha</t>
-  </si>
-  <si>
-    <t>Wide Waters - Into The Forest</t>
-  </si>
-  <si>
-    <t>West End Blend - Kane Guru</t>
-  </si>
-  <si>
-    <t>Flags - 54</t>
-  </si>
-  <si>
-    <t>The Western Den - Like You Do</t>
-  </si>
-  <si>
-    <t>Wolf's Head &amp; Vixen Morris Band - Lament</t>
-  </si>
-  <si>
-    <t>The Funny Valentines - Sleigh Ride</t>
-  </si>
-  <si>
-    <t>Spektakulatius - Wayfaring Stranger</t>
-  </si>
-  <si>
-    <t>Camilla Francesca Bull - W.A.Mozart's Voi Che Sapete</t>
-  </si>
-  <si>
-    <t>Don Camillo Choir - Trude The Bumblebee</t>
-  </si>
-  <si>
-    <t>Silence Is Near - The Forthcoming Turn</t>
-  </si>
-  <si>
-    <t>U T Gandhi - Arto</t>
-  </si>
-  <si>
-    <t>CEF Mallorca GSSII 2017-18 Sessions - Viviendo Del Reves</t>
-  </si>
-  <si>
-    <t>Ryan Cali - Crazy</t>
-  </si>
-  <si>
-    <t>Spektakulatius - Our Love Is Here To Stay</t>
-  </si>
-  <si>
-    <t>Random Somebody - Crazy For Me</t>
-  </si>
-  <si>
-    <t>Remember Jones - Don't Put Me On Hold</t>
-  </si>
-  <si>
-    <t>G-Bass Project - You Make Me Smile</t>
-  </si>
-  <si>
-    <t>Jade Safirah - Paraisso</t>
-  </si>
-  <si>
-    <t>Pawel Maciwoda - 1 Of The First</t>
-  </si>
-  <si>
-    <t>Trafficker - My Father Never Loved Me</t>
-  </si>
-  <si>
-    <t>Keystone Angel - Afterglow</t>
-  </si>
-  <si>
-    <t>Cyrille Aimée - Make You Dance</t>
-  </si>
-  <si>
-    <t>Imp Act - Back In Time</t>
-  </si>
-  <si>
-    <t>Enter The Haggis - Two Bare Hands</t>
-  </si>
-  <si>
-    <t>Purple Hat Mob - Access Denied</t>
-  </si>
-  <si>
-    <t>Mistrusted - Cascade</t>
-  </si>
-  <si>
-    <t>Nova-One Studio - Four Graham</t>
-  </si>
-  <si>
-    <t>Ghostly Beard - Fool</t>
-  </si>
-  <si>
-    <t>APZX - Amalgamize</t>
-  </si>
-  <si>
-    <t>Painted Skies - Piers</t>
-  </si>
-  <si>
-    <t>Phre The Eon - Everybody's Falling Apart</t>
-  </si>
-  <si>
-    <t>Galias - Horizon</t>
-  </si>
-  <si>
-    <t>Chris Durban - Celebrate</t>
-  </si>
-  <si>
-    <t>Justin Myles - Alone With You</t>
-  </si>
-  <si>
-    <t>Lead Inc - The Inner Circle</t>
-  </si>
-  <si>
-    <t>Banda Magda - Mouche</t>
-  </si>
-  <si>
-    <t>Dry Clean Only - Iron Sheik</t>
-  </si>
-  <si>
-    <t>The Brew - What I Want</t>
-  </si>
-  <si>
-    <t>Leftover Salmon - River's Risin</t>
-  </si>
-  <si>
-    <t>The Great Enough - Die Young</t>
-  </si>
-  <si>
-    <t>Perpetual Escape - Stop And Rise</t>
-  </si>
-  <si>
-    <t>Imp Act - The Island Of Alsocanla</t>
-  </si>
-  <si>
-    <t>Glen McPhee - A Sailor Once More</t>
-  </si>
-  <si>
-    <t>Ian Dearden - Terania Creek Walking</t>
-  </si>
-  <si>
-    <t>Marcus Boeltz - Shut Up And Play</t>
-  </si>
-  <si>
-    <t>All Hands Lost - Ambitions</t>
-  </si>
-  <si>
-    <t>The Apprehended - Still Flyin</t>
-  </si>
-  <si>
-    <t>Andrew Cole - Dead Roses</t>
-  </si>
-  <si>
-    <t>Spektakulatius - Jeden Winter</t>
-  </si>
-  <si>
-    <t>Fytakyte - Outa Control</t>
-  </si>
-  <si>
-    <t>Aron Jaeger - Fly High</t>
-  </si>
-  <si>
-    <t>Mistrusted - Trapped</t>
-  </si>
-  <si>
-    <t>Amy Helm &amp; The Handsome Strangers - Rescue Me</t>
-  </si>
-  <si>
-    <t>Wires - Red On You</t>
-  </si>
-  <si>
-    <t>Bolz &amp; Knecht - Summertime</t>
-  </si>
-  <si>
-    <t>Spektakulatius - What Child Is This</t>
-  </si>
-  <si>
-    <t>Ghost Note - Ja Make Ya Dance</t>
-  </si>
-  <si>
-    <t>David Crosby - The Things We Do For Love</t>
-  </si>
-  <si>
-    <t>Guarna - Nuvole</t>
-  </si>
-  <si>
-    <t>Hannes Keseberg - You Know Better</t>
-  </si>
-  <si>
-    <t>Chris Coltraine - Heather Jane</t>
-  </si>
-  <si>
-    <t>The Abletones Big Band - Song Of India</t>
-  </si>
-  <si>
-    <t>Turbosauro - Magilla</t>
-  </si>
-  <si>
-    <t>How To Kill A Conversation - Heart On My Thumb</t>
-  </si>
-  <si>
-    <t>Nervbloc - Slapback</t>
-  </si>
-  <si>
-    <t>James Timms x Benjamin Coosemans - Can You Say The Same</t>
-  </si>
-  <si>
-    <t>Alejo Granados - Rumba Chonta</t>
-  </si>
-  <si>
-    <t>Lead Inc - Way Of Life</t>
-  </si>
-  <si>
-    <t>King's College London Baroque Orchestra - Telemann's La Lyra Overture</t>
-  </si>
-  <si>
-    <t>Street Noise - I'd Rather Be Drinkin</t>
-  </si>
-  <si>
-    <t>Uncle Dad - Who I Am</t>
-  </si>
-  <si>
-    <t>Funky Dawgs Brass Band - Place 2 Be</t>
-  </si>
-  <si>
-    <t>Skelpolu - Entwine</t>
-  </si>
-  <si>
-    <t>Ludø - Sandstorm</t>
-  </si>
-  <si>
-    <t>Andres Guazzelli - Attention</t>
-  </si>
-  <si>
-    <t>Avalon - All I Know</t>
-  </si>
-  <si>
-    <t>Catfolkin - Odi A La Barretina</t>
-  </si>
-  <si>
-    <t>FIN - Echoes</t>
-  </si>
-  <si>
-    <t>Skelpolu - Cold Strive</t>
-  </si>
-  <si>
-    <t>Blues Bastards - Sugar</t>
-  </si>
-  <si>
-    <t>Colton Benjamin - Sail Away</t>
-  </si>
-  <si>
-    <t>Imp Act - Another Life</t>
-  </si>
-  <si>
-    <t>Tim Taler - Stalker</t>
-  </si>
-  <si>
-    <t>Tall Heights - Spirit Cold</t>
-  </si>
-  <si>
-    <t>Asam Classical Soloists - J.S.Bach's Jesu bleibet meine Freude</t>
-  </si>
-  <si>
-    <t>Qupe - Ayni Nehirde</t>
-  </si>
-  <si>
-    <t>Camilla Francesca Bull - Va! Laisse Couler Mes Larmes</t>
-  </si>
-  <si>
-    <t>Mady &amp; Seus Namorados - Pirarucumbia</t>
-  </si>
-  <si>
-    <t>Starnes &amp; Shah - Prodigal</t>
-  </si>
-  <si>
-    <t>The Long Wait - Drag</t>
-  </si>
-  <si>
-    <t>Jay Menon - Through My Eyes</t>
-  </si>
-  <si>
-    <t>Magician's Nephew - Symphony Of Silence</t>
-  </si>
-  <si>
-    <t>H-owl Project - If I Were A Bell</t>
-  </si>
-  <si>
-    <t>Babe Grand - King Of The Weekend</t>
-  </si>
-  <si>
-    <t>Lingua Funqa - Just One Minute</t>
-  </si>
-  <si>
-    <t>Jet B - Suit You</t>
-  </si>
-  <si>
-    <t>Mustafa Albazy - Shela Ya Marhaba</t>
-  </si>
-  <si>
-    <t>Woodfire - Animals</t>
-  </si>
-  <si>
-    <t>Barnstar! - You Don't Know</t>
-  </si>
-  <si>
-    <t>Alan Mansfield &amp; John Pritchard - Boat Ride</t>
-  </si>
-  <si>
-    <t>Ronnie Jones - Why Don't You Stay</t>
-  </si>
-  <si>
-    <t>Perpetual Escape - Roots Of Mankind</t>
-  </si>
-  <si>
-    <t>Francisco Perez - Spaces</t>
-  </si>
-  <si>
-    <t>Colton Benjamin - Can't Let You Go</t>
-  </si>
-  <si>
-    <t>The Timezone - GOTGF</t>
-  </si>
-  <si>
-    <t>Colebrook Road - Bright Angel</t>
-  </si>
-  <si>
-    <t>Ikebe Shakedown - The Last Stand</t>
-  </si>
-  <si>
-    <t>Bruks - Kak Tvoi Dela Vova</t>
-  </si>
-  <si>
-    <t>Cotton Drifting - Rainy Day II</t>
-  </si>
-  <si>
-    <t>Ale Lak - Nosso Mundo Deixou De Existir</t>
-  </si>
-  <si>
-    <t>Admiral Crumple - Keeps Flowing</t>
-  </si>
-  <si>
-    <t>Dunning Kruger - Japan Song</t>
-  </si>
-  <si>
-    <t>Neon Hornet - Take It Off</t>
-  </si>
-  <si>
-    <t>The Butterfly Effect - Fairytale</t>
-  </si>
-  <si>
-    <t>David Tyo - Never Ebb But Flow</t>
-  </si>
-  <si>
-    <t>Wesley Morgan - Backroom In Tulsa</t>
-  </si>
-  <si>
-    <t>The Butterfly Effect - Preach Right Here</t>
-  </si>
-  <si>
-    <t>Digital Humans - Relentlessly</t>
-  </si>
-  <si>
-    <t>Karl Hungus - Got Your Love</t>
-  </si>
-  <si>
-    <t>Ripe - 4 Out Of 10</t>
-  </si>
-  <si>
-    <t>The Black Crown - Cage</t>
-  </si>
-  <si>
-    <t>Peter White - Crazy Girl</t>
-  </si>
-  <si>
-    <t>Ted Behrman - Convertible</t>
-  </si>
-  <si>
-    <t>thelvnguage - Raspberry Jam</t>
-  </si>
-  <si>
-    <t>Woven Hollow - Tell Me Nice</t>
-  </si>
-  <si>
-    <t>Spektakulatius - Is You Is Or Is You Ain't</t>
-  </si>
-  <si>
-    <t>Rattletree - Just Let It Go</t>
-  </si>
-  <si>
-    <t>Skelpolu - Resurrection Resurrected</t>
-  </si>
-  <si>
-    <t>Szlachetka - Heart Of My Home Town</t>
-  </si>
-  <si>
-    <t>Zwiepack - Air</t>
-  </si>
-  <si>
-    <t>Wess Meets West - Direct Experience</t>
-  </si>
-  <si>
-    <t>Scott Elliott - Aeternum Vale</t>
-  </si>
-  <si>
-    <t>Six Fox Whiskey - Hope And The Sea</t>
-  </si>
-  <si>
-    <t>Don Camillo Choir - The Woodworm Song</t>
-  </si>
-  <si>
-    <t>Unicorn Rodeo - Maybe</t>
-  </si>
-  <si>
-    <t>impossible c o l o u r s - The Truth</t>
-  </si>
-  <si>
-    <t>James Fabio - Machines On Treadmills</t>
-  </si>
-  <si>
-    <t>Guarna - Ancora Qui</t>
-  </si>
-  <si>
-    <t>Enda Reilly - An Nasc Nua</t>
-  </si>
-  <si>
-    <t>Kangoro - Clinic A</t>
-  </si>
-  <si>
-    <t>Rebuild The Evil - Burial Of Silence</t>
-  </si>
-  <si>
-    <t>Perdidos Na Zona Sul - Meu Bem</t>
-  </si>
-  <si>
-    <t>J P Lantieri - Chardonnay (Mystik Vibe Remix)</t>
-  </si>
-  <si>
-    <t>Maurizio Pagnutti Sextet - Bess</t>
-  </si>
-  <si>
-    <t>APZX - Transcention</t>
-  </si>
-  <si>
-    <t>Angela Thomas Wade - Milk Cow Blues</t>
-  </si>
-  <si>
-    <t>V.M.GY - Fountain Of Eternal Life</t>
-  </si>
-  <si>
-    <t>Eduard Semenov - Big Man's Death</t>
-  </si>
-  <si>
-    <t>Major Lazer - Light It Up</t>
-  </si>
-  <si>
-    <t>Skyeez &amp; The Whiteflies - Jump Across</t>
-  </si>
-  <si>
-    <t>Spike Mullings - Mike's Sulking</t>
-  </si>
-  <si>
-    <t>BaumXmedia - Dream State (feat. Flora Lin)</t>
-  </si>
-  <si>
-    <t>Balkun Brothers - So Hi. So Lo</t>
-  </si>
-  <si>
-    <t>Pretty Saro - Carolina In The Pines</t>
-  </si>
-  <si>
-    <t>Storm Of Particles - Of Ice And Hopeless Fate</t>
-  </si>
-  <si>
-    <t>The Long Wait - Lookout Mountain</t>
-  </si>
-  <si>
-    <t>Skelpolu - Long Road</t>
-  </si>
-  <si>
-    <t>Ricardo Santiago - Let The Music Fade Away</t>
-  </si>
-  <si>
-    <t>Kangoro - Easy Tiger</t>
-  </si>
-  <si>
-    <t>V.M.GY - Aureus Necrosis</t>
-  </si>
-  <si>
-    <t>Wesley Morgan - Flesh And Bone</t>
-  </si>
-  <si>
-    <t>Angelo Boltini - This Town</t>
-  </si>
-  <si>
-    <t>Will Knox - Cog In The Machine</t>
-  </si>
-  <si>
-    <t>The Penniless Wild - Seat Back</t>
-  </si>
-  <si>
-    <t>Evening Darling - Passenger Side</t>
-  </si>
-  <si>
-    <t>Mustafa Albazy - Tgheer</t>
-  </si>
-  <si>
-    <t>Jeffrey Hayat - Alex The Adventurer</t>
-  </si>
-  <si>
-    <t>V.M.GY - The Crown</t>
-  </si>
-  <si>
-    <t>Simon Lyn - Copper</t>
-  </si>
-  <si>
-    <t>Colton Benjamin - 21 Grams</t>
-  </si>
-  <si>
-    <t>Woodfire - Outer</t>
-  </si>
-  <si>
-    <t>cryonicPAX - Hold Me</t>
-  </si>
-  <si>
-    <t>Secretariat - Borderline</t>
-  </si>
-  <si>
-    <t>Hazael - A Mi Lado</t>
-  </si>
-  <si>
-    <t>Silona - Learning How To Fly</t>
-  </si>
-  <si>
-    <t>Albert Kader - Ubiquitous</t>
-  </si>
-  <si>
-    <t>Fredy V - Not Alone</t>
-  </si>
-  <si>
-    <t>Ian Dearden - Thursday Reverie</t>
-  </si>
-  <si>
-    <t>Nzca Lines - Pure Luxury</t>
-  </si>
-  <si>
-    <t>Nikola Stajic feat. Vlasis Kostas - Nalim</t>
-  </si>
-  <si>
-    <t>Araujo - The Saga Of Harrison Crabfeathers</t>
-  </si>
-  <si>
-    <t>G-Bass Project - New Day Dawning</t>
-  </si>
-  <si>
-    <t>cryonicPAX - Excessive</t>
-  </si>
-  <si>
-    <t>Rod Alexander - Pachebel's Canon</t>
-  </si>
-  <si>
-    <t>J P Lantieri - Chardonnay (Ornery Remix)</t>
-  </si>
-  <si>
-    <t>Juanita Dientes Verdes - Dios Salve El R&amp;R - Cielo Sin Santos</t>
-  </si>
-  <si>
-    <t>Drumtracks - Ghost Bitch</t>
-  </si>
-  <si>
-    <t>Dark Ride - Piece Of Me</t>
-  </si>
-  <si>
-    <t>impossible c o l o u r s - Dune Rider</t>
-  </si>
-  <si>
-    <t>Ilmari Kontia - Funkkihillo</t>
-  </si>
-  <si>
-    <t>Woodfire - Haunted House</t>
-  </si>
-  <si>
-    <t>Plywood Cowboy - Last Night's Gig</t>
-  </si>
-  <si>
-    <t>John McKay - Daisy Daisy</t>
-  </si>
-  <si>
-    <t>Öjebokören - That's Entertainment</t>
-  </si>
-  <si>
-    <t>Mistrusted - Carnival Charade</t>
-  </si>
-  <si>
-    <t>Wess Meets West - 64 Bristol</t>
-  </si>
-  <si>
-    <t>Last Legacy - Who's Who In Hell</t>
-  </si>
-  <si>
-    <t>How To Kill A Conversation - Oil</t>
-  </si>
-  <si>
-    <t>Eddie Garrido - 5th Floor</t>
-  </si>
-  <si>
-    <t>The Long Wait - Dark Horses</t>
-  </si>
-  <si>
-    <t>Peter White - The Blues Is A Lady</t>
-  </si>
-  <si>
-    <t>Catfolkin - Sant Jordi v2.0</t>
-  </si>
-  <si>
-    <t>Headwound Harry - XXXV</t>
+    <t>Turkuaz - Tip Toe Through The Crypto'</t>
+  </si>
+  <si>
+    <t>Turn Back To Spring - Another Day Calling'</t>
+  </si>
+  <si>
+    <t>Uncle Dad - Who I Am'</t>
+  </si>
+  <si>
+    <t>Unicorn Rodeo - Maybe'</t>
+  </si>
+  <si>
+    <t>U T Gandhi - Arto'</t>
+  </si>
+  <si>
+    <t>V.M.GY - Aureus Necrosis'</t>
+  </si>
+  <si>
+    <t>V.M.GY - Bloodshed'</t>
+  </si>
+  <si>
+    <t>V.M.GY - Equilibrium'</t>
+  </si>
+  <si>
+    <t>V.M.GY - Fountain Of Eternal Life'</t>
+  </si>
+  <si>
+    <t>V.M.GY - Omen'</t>
+  </si>
+  <si>
+    <t>V.M.GY - Purgatory'</t>
+  </si>
+  <si>
+    <t>V.M.GY - The Crown'</t>
+  </si>
+  <si>
+    <t>Voelund - Comfort Lives In Belief'</t>
+  </si>
+  <si>
+    <t>Wall Of Death - Femme'</t>
+  </si>
+  <si>
+    <t>Wesley Morgan - Backroom In Tulsa'</t>
+  </si>
+  <si>
+    <t>Wesley Morgan - Flesh And Bone'</t>
+  </si>
+  <si>
+    <t>Wess Meets West - 64 Bristol'</t>
+  </si>
+  <si>
+    <t>Wess Meets West - Direct Experience'</t>
+  </si>
+  <si>
+    <t>West End Blend - Kane Guru'</t>
+  </si>
+  <si>
+    <t>West End Blend - Must Be Voodoo'</t>
+  </si>
+  <si>
+    <t>Wide Waters - Into The Forest'</t>
+  </si>
+  <si>
+    <t>Will Evans - Me And My Crew'</t>
+  </si>
+  <si>
+    <t>Will Knox - Cog In The Machine'</t>
+  </si>
+  <si>
+    <t>Wires - Red On You'</t>
+  </si>
+  <si>
+    <t>Wolf'\''s Head &amp; Vixen Morris Band - Lament'</t>
+  </si>
+  <si>
+    <t>Woodfire - Animals'</t>
+  </si>
+  <si>
+    <t>Woodfire - Get Fooled'</t>
+  </si>
+  <si>
+    <t>Woodfire - Haunted House'</t>
+  </si>
+  <si>
+    <t>Woodfire - Outer'</t>
+  </si>
+  <si>
+    <t>Woodfire - Wealthy In Time'</t>
+  </si>
+  <si>
+    <t>Woven Hollow - Tell Me Nice'</t>
+  </si>
+  <si>
+    <t>Zane Carney &amp; Friends - Talk To Me Baby'</t>
+  </si>
+  <si>
+    <t>Zwiepack - Air'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1538,6 +1541,11 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1554,12 +1562,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1793,2349 +1810,2347 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="3" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="3" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="3" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="3" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="3" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="3" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="5" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="3" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="3" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="3" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="3" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="3" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="3" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="3" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="3" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="5" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="3" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="3" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="3" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="3" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="5" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="3" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="3" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="3" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="3" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="3" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="3" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="3" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="3" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="3" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="3" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="3" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="3" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="3" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="3" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="5" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="3" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="3" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="3" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="3" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="3" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="3" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="3" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="3" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="3" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="3" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="3" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="5" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="5" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="3" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="3" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="3" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="3" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="3" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="3" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="3" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="3" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="3" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="5" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="3" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="3" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="3" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="3" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="3" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="5" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="3" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="3" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="3" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="3" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="3" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="3" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="3" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="3" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="3" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="3" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="3" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="3" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="C132" s="1" t="s">
+      <c r="C132" s="3" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="C133" s="1" t="s">
+      <c r="C133" s="3" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="C134" s="1" t="s">
+      <c r="C134" s="3" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="C135" s="1" t="s">
+      <c r="C135" s="3" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="C136" s="1" t="s">
+      <c r="C136" s="3" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="C137" s="1" t="s">
+      <c r="C137" s="3" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="C138" s="1" t="s">
+      <c r="C138" s="3" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="C139" s="1" t="s">
+      <c r="C139" s="3" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="C140" s="1" t="s">
+      <c r="C140" s="3" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="C141" s="1" t="s">
+      <c r="C141" s="3" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="C142" s="1" t="s">
+      <c r="C142" s="3" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="C143" s="1" t="s">
+      <c r="C143" s="3" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="C144" s="1" t="s">
+      <c r="C144" s="3" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="C145" s="1" t="s">
+      <c r="C145" s="3" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="3" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="C147" s="1" t="s">
+      <c r="C147" s="3" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="C148" s="1" t="s">
+      <c r="C148" s="3" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="C149" s="1" t="s">
+      <c r="C149" s="3" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="C150" s="1" t="s">
+      <c r="C150" s="3" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="C151" s="1" t="s">
+      <c r="C151" s="3" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="C152" s="1" t="s">
+      <c r="C152" s="3" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="C153" s="1" t="s">
+      <c r="C153" s="3" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="C154" s="1" t="s">
+      <c r="C154" s="3" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="C155" s="1" t="s">
+      <c r="C155" s="3" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="C156" s="1" t="s">
+      <c r="C156" s="3" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="C157" s="1" t="s">
+      <c r="C157" s="3" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="C158" s="1" t="s">
+      <c r="C158" s="3" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="C159" s="1" t="s">
+      <c r="C159" s="3" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="C160" s="1" t="s">
+      <c r="C160" s="3" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="C161" s="1" t="s">
+      <c r="C161" s="3" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="C162" s="1" t="s">
-        <v>227</v>
+      <c r="C162" s="3" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="C163" s="1" t="s">
-        <v>243</v>
+      <c r="C163" s="3" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="C164" s="1" t="s">
-        <v>244</v>
+      <c r="C164" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="C165" s="1" t="s">
-        <v>245</v>
+      <c r="C165" s="3" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="C166" s="1" t="s">
-        <v>246</v>
+      <c r="C166" s="3" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="C167" s="1" t="s">
-        <v>247</v>
+      <c r="C167" s="3" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="C168" s="1" t="s">
-        <v>248</v>
+      <c r="C168" s="3" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="C169" s="1" t="s">
-        <v>249</v>
+      <c r="C169" s="3" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="C170" s="1" t="s">
-        <v>250</v>
+      <c r="C170" s="3" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="C171" s="1" t="s">
-        <v>251</v>
+      <c r="C171" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="C172" s="1" t="s">
-        <v>252</v>
+      <c r="C172" s="3" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="C173" s="1" t="s">
-        <v>253</v>
+      <c r="C173" s="3" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="C174" s="1" t="s">
-        <v>254</v>
+      <c r="C174" s="3" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="C175" s="1" t="s">
-        <v>255</v>
+      <c r="C175" s="3" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="C176" s="1" t="s">
-        <v>256</v>
+      <c r="C176" s="5" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="C177" s="1" t="s">
-        <v>257</v>
+      <c r="C177" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="C178" s="1" t="s">
-        <v>258</v>
+      <c r="C178" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="C179" s="1" t="s">
-        <v>259</v>
+      <c r="C179" s="3" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="C180" s="1" t="s">
-        <v>260</v>
+      <c r="C180" s="3" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="C181" s="1" t="s">
-        <v>261</v>
+      <c r="C181" s="3" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="C182" s="1" t="s">
-        <v>262</v>
+      <c r="C182" s="3" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="C183" s="1" t="s">
-        <v>263</v>
+      <c r="C183" s="3" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="C184" s="1" t="s">
-        <v>264</v>
+      <c r="C184" s="3" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="C185" s="1" t="s">
-        <v>265</v>
+      <c r="C185" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="C186" s="1" t="s">
-        <v>266</v>
+      <c r="C186" s="3" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="C187" s="1" t="s">
-        <v>267</v>
+      <c r="C187" s="3" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="C188" s="1" t="s">
-        <v>268</v>
+      <c r="C188" s="3" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="C189" s="1" t="s">
-        <v>269</v>
+      <c r="C189" s="3" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="C190" s="1" t="s">
-        <v>270</v>
+      <c r="C190" s="3" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="C191" s="1" t="s">
-        <v>271</v>
+      <c r="C191" s="3" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="C192" s="1" t="s">
-        <v>272</v>
+      <c r="C192" s="3" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="C193" s="1" t="s">
-        <v>273</v>
+      <c r="C193" s="3" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="C194" s="1" t="s">
-        <v>274</v>
+      <c r="C194" s="3" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="C195" s="1" t="s">
-        <v>275</v>
+      <c r="C195" s="3" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="C196" s="1" t="s">
-        <v>276</v>
+      <c r="C196" s="3" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="C197" s="1" t="s">
-        <v>277</v>
+      <c r="C197" s="3" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="C198" s="1" t="s">
-        <v>278</v>
+      <c r="C198" s="3" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="C199" s="1" t="s">
-        <v>279</v>
+      <c r="C199" s="3" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="C200" s="1" t="s">
-        <v>280</v>
+      <c r="C200" s="3" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="C201" s="1" t="s">
-        <v>281</v>
+      <c r="C201" s="3" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="C202" s="1" t="s">
-        <v>282</v>
+      <c r="C202" s="3" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="C203" s="1" t="s">
-        <v>283</v>
+      <c r="C203" s="3" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="C204" s="1" t="s">
-        <v>284</v>
+      <c r="C204" s="3" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="C205" s="1" t="s">
-        <v>285</v>
+      <c r="C205" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="C206" s="1" t="s">
-        <v>286</v>
+      <c r="C206" s="3" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="C207" s="1" t="s">
-        <v>287</v>
+      <c r="C207" s="3" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="C208" s="1" t="s">
-        <v>288</v>
+      <c r="C208" s="3" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="C209" s="1" t="s">
-        <v>289</v>
+      <c r="C209" s="3" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="C210" s="1" t="s">
-        <v>290</v>
+      <c r="C210" s="3" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="C211" s="1" t="s">
-        <v>291</v>
+      <c r="C211" s="3" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="C212" s="1" t="s">
-        <v>292</v>
+      <c r="C212" s="3" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="C213" s="1" t="s">
-        <v>293</v>
+      <c r="C213" s="5" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="C214" s="1" t="s">
-        <v>294</v>
+      <c r="C214" s="3" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="C215" s="1" t="s">
-        <v>295</v>
+      <c r="C215" s="3" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="C216" s="1" t="s">
-        <v>296</v>
+      <c r="C216" s="5" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="C217" s="1" t="s">
-        <v>297</v>
+      <c r="C217" s="3" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="C218" s="1" t="s">
-        <v>298</v>
+      <c r="C218" s="3" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="C219" s="1" t="s">
-        <v>299</v>
+      <c r="C219" s="3" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="C220" s="1" t="s">
-        <v>300</v>
+      <c r="C220" s="5" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="C221" s="1" t="s">
-        <v>301</v>
+      <c r="C221" s="3" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="C222" s="1" t="s">
-        <v>302</v>
+      <c r="C222" s="5" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="C223" s="1" t="s">
-        <v>303</v>
+      <c r="C223" s="3" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="C224" s="1" t="s">
-        <v>304</v>
+      <c r="C224" s="3" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="C225" s="1" t="s">
-        <v>305</v>
+      <c r="C225" s="3" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="C226" s="1" t="s">
-        <v>306</v>
+      <c r="C226" s="3" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="C227" s="1" t="s">
-        <v>307</v>
+      <c r="C227" s="3" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="C228" s="1" t="s">
-        <v>308</v>
+      <c r="C228" s="5" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="C229" s="1" t="s">
-        <v>309</v>
+      <c r="C229" s="5" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="C230" s="1" t="s">
-        <v>310</v>
+      <c r="C230" s="3" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="C231" s="1" t="s">
-        <v>311</v>
+      <c r="C231" s="3" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="C232" s="1" t="s">
-        <v>312</v>
+      <c r="C232" s="3" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="C233" s="1" t="s">
-        <v>313</v>
+      <c r="C233" s="3" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="C234" s="1" t="s">
-        <v>314</v>
+      <c r="C234" s="3" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="C235" s="1" t="s">
-        <v>315</v>
+      <c r="C235" s="3" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="C236" s="1" t="s">
-        <v>316</v>
+      <c r="C236" s="3" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="C237" s="1" t="s">
-        <v>317</v>
+      <c r="C237" s="5" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="C238" s="1" t="s">
-        <v>318</v>
+      <c r="C238" s="3" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="C239" s="1" t="s">
-        <v>319</v>
+      <c r="C239" s="3" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="C240" s="1" t="s">
-        <v>320</v>
+      <c r="C240" s="3" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="C241" s="1" t="s">
-        <v>321</v>
+      <c r="C241" s="3" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="C242" s="1" t="s">
-        <v>322</v>
+      <c r="C242" s="3" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="C243" s="1" t="s">
-        <v>323</v>
+      <c r="C243" s="3" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="C244" s="1" t="s">
-        <v>324</v>
+      <c r="C244" s="3" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="C245" s="1" t="s">
-        <v>325</v>
+      <c r="C245" s="3" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="C246" s="1" t="s">
-        <v>326</v>
+      <c r="C246" s="3" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="C247" s="1" t="s">
-        <v>327</v>
+      <c r="C247" s="3" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="C248" s="1" t="s">
-        <v>328</v>
+      <c r="C248" s="3" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="C249" s="1" t="s">
-        <v>329</v>
+      <c r="C249" s="3" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="C250" s="1" t="s">
-        <v>330</v>
+      <c r="C250" s="3" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="C251" s="1" t="s">
-        <v>331</v>
+      <c r="C251" s="3" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="C252" s="1" t="s">
-        <v>332</v>
+      <c r="C252" s="3" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="C253" s="1" t="s">
-        <v>333</v>
+      <c r="C253" s="3" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="C254" s="1" t="s">
-        <v>334</v>
+      <c r="C254" s="3" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="C255" s="1" t="s">
-        <v>335</v>
+      <c r="C255" s="3" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="C256" s="1" t="s">
-        <v>336</v>
+      <c r="C256" s="3" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="C257" s="1" t="s">
-        <v>337</v>
+      <c r="C257" s="3" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="C258" s="1" t="s">
-        <v>338</v>
+      <c r="C258" s="3" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="C259" s="1" t="s">
-        <v>339</v>
+      <c r="C259" s="3" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="C260" s="1" t="s">
-        <v>340</v>
+      <c r="C260" s="5" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="C261" s="1" t="s">
-        <v>341</v>
+      <c r="C261" s="3" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="C262" s="1" t="s">
-        <v>342</v>
+      <c r="C262" s="3" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="C263" s="1" t="s">
-        <v>343</v>
+      <c r="C263" s="3" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="C264" s="1" t="s">
-        <v>344</v>
+      <c r="C264" s="3" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="C265" s="1" t="s">
-        <v>345</v>
+      <c r="C265" s="3" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="C266" s="1" t="s">
-        <v>346</v>
+      <c r="C266" s="3" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="C267" s="1" t="s">
-        <v>347</v>
+      <c r="C267" s="3" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="C268" s="1" t="s">
-        <v>348</v>
+      <c r="C268" s="3" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="C269" s="1" t="s">
-        <v>349</v>
+      <c r="C269" s="3" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="C270" s="1" t="s">
-        <v>350</v>
+      <c r="C270" s="3" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="C271" s="1" t="s">
-        <v>351</v>
+      <c r="C271" s="3" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="C272" s="1" t="s">
-        <v>352</v>
+      <c r="C272" s="3" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="C273" s="1" t="s">
-        <v>353</v>
+      <c r="C273" s="3" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="C274" s="1" t="s">
-        <v>354</v>
+      <c r="C274" s="3" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="C275" s="1" t="s">
-        <v>355</v>
+      <c r="C275" s="5" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="C276" s="1" t="s">
-        <v>356</v>
+      <c r="C276" s="3" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="C277" s="1" t="s">
-        <v>357</v>
+      <c r="C277" s="5" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="C278" s="1" t="s">
-        <v>358</v>
+      <c r="C278" s="3" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="C279" s="1" t="s">
-        <v>359</v>
+      <c r="C279" s="3" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="C280" s="1" t="s">
-        <v>360</v>
+      <c r="C280" s="3" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="C281" s="1" t="s">
-        <v>361</v>
+      <c r="C281" s="3" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="C282" s="1" t="s">
-        <v>362</v>
+      <c r="C282" s="3" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="C283" s="1" t="s">
-        <v>363</v>
+      <c r="C283" s="3" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="C284" s="1" t="s">
-        <v>364</v>
+      <c r="C284" s="3" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="C285" s="1" t="s">
-        <v>365</v>
+      <c r="C285" s="3" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="C286" s="1" t="s">
-        <v>366</v>
+      <c r="C286" s="5" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="C287" s="1" t="s">
-        <v>367</v>
+      <c r="C287" s="3" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="C288" s="1" t="s">
-        <v>368</v>
+      <c r="C288" s="3" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="C289" s="1" t="s">
-        <v>369</v>
+      <c r="C289" s="3" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="C290" s="1" t="s">
-        <v>370</v>
+      <c r="C290" s="3" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="C291" s="1" t="s">
-        <v>371</v>
+      <c r="C291" s="3" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="C292" s="1" t="s">
-        <v>372</v>
+      <c r="C292" s="3" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="C293" s="1" t="s">
-        <v>373</v>
+      <c r="C293" s="3" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="C294" s="1" t="s">
-        <v>374</v>
+      <c r="C294" s="5" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="C295" s="1" t="s">
-        <v>375</v>
+      <c r="C295" s="3" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="C296" s="1" t="s">
-        <v>376</v>
+      <c r="C296" s="5" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="C297" s="1" t="s">
-        <v>377</v>
+      <c r="C297" s="5" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="C298" s="1" t="s">
-        <v>378</v>
+      <c r="C298" s="3" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="C299" s="1" t="s">
-        <v>379</v>
+      <c r="C299" s="3" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="C300" s="1" t="s">
-        <v>380</v>
+      <c r="C300" s="3" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="C301" s="1" t="s">
-        <v>381</v>
+      <c r="C301" s="3" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="C302" s="1" t="s">
-        <v>382</v>
+      <c r="C302" s="3" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="C303" s="1" t="s">
-        <v>383</v>
+      <c r="C303" s="3" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="C304" s="1" t="s">
-        <v>384</v>
+      <c r="C304" s="3" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="C305" s="1" t="s">
-        <v>385</v>
+      <c r="C305" s="3" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="C306" s="1" t="s">
-        <v>386</v>
+      <c r="C306" s="3" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="C307" s="1" t="s">
-        <v>387</v>
+      <c r="C307" s="5" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="C308" s="1" t="s">
-        <v>388</v>
+      <c r="C308" s="3" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="C309" s="1" t="s">
-        <v>389</v>
+      <c r="C309" s="3" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="C310" s="1" t="s">
-        <v>390</v>
+      <c r="C310" s="3" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="C311" s="1" t="s">
-        <v>391</v>
+      <c r="C311" s="3" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="C312" s="1" t="s">
-        <v>392</v>
+      <c r="C312" s="3" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="C313" s="1" t="s">
-        <v>393</v>
+      <c r="C313" s="3" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="C314" s="1" t="s">
-        <v>394</v>
+      <c r="C314" s="3" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="C315" s="1" t="s">
-        <v>395</v>
+      <c r="C315" s="3" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="C316" s="1" t="s">
-        <v>396</v>
+      <c r="C316" s="3" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="C317" s="1" t="s">
-        <v>397</v>
+      <c r="C317" s="3" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="C318" s="1" t="s">
-        <v>398</v>
+      <c r="C318" s="3" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="C319" s="1" t="s">
-        <v>399</v>
+      <c r="C319" s="3" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="C320" s="1" t="s">
-        <v>400</v>
+      <c r="C320" s="3" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="C321" s="1" t="s">
-        <v>401</v>
+      <c r="C321" s="3" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="C322" s="1" t="s">
-        <v>402</v>
+      <c r="C322" s="3" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="C323" s="1" t="s">
-        <v>403</v>
+      <c r="C323" s="3" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="C324" s="1" t="s">
-        <v>404</v>
+      <c r="C324" s="5" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="C325" s="1" t="s">
-        <v>405</v>
+      <c r="C325" s="3" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="C326" s="1" t="s">
-        <v>406</v>
+      <c r="C326" s="3" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="C327" s="1" t="s">
-        <v>407</v>
+      <c r="C327" s="3" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="C328" s="1" t="s">
-        <v>408</v>
+      <c r="C328" s="3" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="C329" s="1" t="s">
-        <v>409</v>
+      <c r="C329" s="5" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="C330" s="1" t="s">
-        <v>410</v>
+      <c r="C330" s="3" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="C331" s="1" t="s">
-        <v>411</v>
+      <c r="C331" s="3" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="C332" s="1" t="s">
-        <v>412</v>
+      <c r="C332" s="3" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="C333" s="1" t="s">
-        <v>413</v>
+      <c r="C333" s="5" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="C334" s="1" t="s">
-        <v>414</v>
+      <c r="C334" s="3" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="C335" s="1" t="s">
-        <v>415</v>
+      <c r="C335" s="3" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="C336" s="1" t="s">
-        <v>416</v>
+      <c r="C336" s="3" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="C337" s="1" t="s">
-        <v>417</v>
+      <c r="C337" s="3" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="C338" s="1" t="s">
-        <v>418</v>
+      <c r="C338" s="3" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="C339" s="1" t="s">
-        <v>419</v>
+      <c r="C339" s="3" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="C340" s="1" t="s">
-        <v>420</v>
+      <c r="C340" s="5" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="C341" s="1" t="s">
-        <v>421</v>
+      <c r="C341" s="3" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="C342" s="1" t="s">
-        <v>422</v>
+      <c r="C342" s="3" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="C343" s="1" t="s">
-        <v>423</v>
+      <c r="C343" s="3" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="C344" s="1" t="s">
-        <v>424</v>
+      <c r="C344" s="5" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="C345" s="1" t="s">
-        <v>425</v>
+      <c r="C345" s="3" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="C346" s="1" t="s">
-        <v>426</v>
+      <c r="C346" s="3" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="C347" s="1" t="s">
-        <v>427</v>
+      <c r="C347" s="3" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="C348" s="1" t="s">
-        <v>428</v>
+      <c r="C348" s="3" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="C349" s="1" t="s">
-        <v>429</v>
+      <c r="C349" s="3" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="C350" s="1" t="s">
-        <v>430</v>
+      <c r="C350" s="3" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="C351" s="1" t="s">
-        <v>431</v>
+      <c r="C351" s="3" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="C352" s="1" t="s">
-        <v>432</v>
+      <c r="C352" s="3" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="C353" s="1" t="s">
-        <v>433</v>
+      <c r="C353" s="3" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="C354" s="1" t="s">
-        <v>434</v>
+      <c r="C354" s="3" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="C355" s="1" t="s">
-        <v>435</v>
+      <c r="C355" s="3" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="C356" s="1" t="s">
-        <v>436</v>
+      <c r="C356" s="3" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="C357" s="1" t="s">
-        <v>437</v>
+      <c r="C357" s="3" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="C358" s="1" t="s">
-        <v>438</v>
+      <c r="C358" s="3" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="C359" s="1" t="s">
-        <v>439</v>
+      <c r="C359" s="3" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="C360" s="1" t="s">
-        <v>440</v>
+      <c r="C360" s="3" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="C361" s="1" t="s">
-        <v>441</v>
+      <c r="C361" s="3" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="C362" s="1" t="s">
-        <v>442</v>
+      <c r="C362" s="3" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="C363" s="1" t="s">
-        <v>443</v>
+      <c r="C363" s="3" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="C364" s="1" t="s">
-        <v>444</v>
+      <c r="C364" s="3" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="C365" s="1" t="s">
-        <v>445</v>
+      <c r="C365" s="3" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="C366" s="1" t="s">
-        <v>446</v>
+      <c r="C366" s="3" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="C367" s="1" t="s">
-        <v>447</v>
+      <c r="C367" s="3" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="C368" s="1" t="s">
-        <v>448</v>
+      <c r="C368" s="3" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="C369" s="1" t="s">
-        <v>449</v>
+      <c r="C369" s="3" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="C370" s="1" t="s">
-        <v>450</v>
+      <c r="C370" s="3" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="C371" s="1" t="s">
-        <v>451</v>
+      <c r="C371" s="3" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="C372" s="1" t="s">
-        <v>452</v>
+      <c r="C372" s="3" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="C373" s="1" t="s">
-        <v>453</v>
+      <c r="C373" s="3" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="C374" s="1" t="s">
-        <v>454</v>
+      <c r="C374" s="3" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="C375" s="1" t="s">
-        <v>455</v>
+      <c r="C375" s="3" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="C376" s="1" t="s">
-        <v>456</v>
+      <c r="C376" s="3" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="C377" s="1" t="s">
-        <v>457</v>
+      <c r="C377" s="5" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="C378" s="1" t="s">
-        <v>458</v>
+      <c r="C378" s="3" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="C379" s="1" t="s">
-        <v>459</v>
+      <c r="C379" s="5" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="C380" s="1" t="s">
-        <v>460</v>
+      <c r="C380" s="3" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="C381" s="1" t="s">
-        <v>461</v>
+      <c r="C381" s="3" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="C382" s="1" t="s">
-        <v>462</v>
+      <c r="C382" s="3" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="C383" s="1" t="s">
-        <v>463</v>
+      <c r="C383" s="3" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="C384" s="1" t="s">
-        <v>464</v>
+      <c r="C384" s="3" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="C385" s="1" t="s">
-        <v>465</v>
+      <c r="C385" s="3" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="C386" s="1" t="s">
-        <v>466</v>
+      <c r="C386" s="3" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="C387" s="1" t="s">
-        <v>467</v>
+      <c r="C387" s="3" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="C388" s="1" t="s">
-        <v>468</v>
+      <c r="C388" s="5" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="C389" s="1" t="s">
-        <v>469</v>
+      <c r="C389" s="3" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="C390" s="1" t="s">
-        <v>470</v>
+      <c r="C390" s="3" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="C391" s="1" t="s">
-        <v>471</v>
+      <c r="C391" s="3" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="C392" s="2" t="s">
-        <v>472</v>
+      <c r="C392" s="3" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="C393" s="1" t="s">
-        <v>473</v>
+      <c r="C393" s="3" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="C394" s="1" t="s">
-        <v>474</v>
+      <c r="C394" s="3" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="C395" s="1" t="s">
-        <v>475</v>
+      <c r="C395" s="3" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="C396" s="1" t="s">
-        <v>476</v>
+      <c r="C396" s="3" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="C397" s="1" t="s">
-        <v>477</v>
+      <c r="C397" s="3" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="C398" s="1" t="s">
-        <v>478</v>
+      <c r="C398" s="3" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="C399" s="1" t="s">
-        <v>479</v>
+      <c r="C399" s="3" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="C400" s="1" t="s">
-        <v>480</v>
+      <c r="C400" s="3" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="C401" s="1" t="s">
-        <v>481</v>
+      <c r="C401" s="3" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="C402" s="1" t="s">
-        <v>482</v>
+      <c r="C402" s="3" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="C403" s="1" t="s">
-        <v>483</v>
+      <c r="C403" s="3" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="C404" s="1" t="s">
-        <v>484</v>
+      <c r="C404" s="3" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="C405" s="1" t="s">
-        <v>485</v>
+      <c r="C405" s="3" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="C406" s="1" t="s">
-        <v>486</v>
+      <c r="C406" s="3" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="C407" s="1" t="s">
-        <v>487</v>
+      <c r="C407" s="3" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="C408" s="1" t="s">
-        <v>488</v>
+      <c r="C408" s="3" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="C409" s="1" t="s">
-        <v>489</v>
+      <c r="C409" s="3" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="C410" s="1" t="s">
-        <v>490</v>
+      <c r="C410" s="3" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="C411" s="1" t="s">
-        <v>491</v>
+      <c r="C411" s="3" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="C412" s="1" t="s">
-        <v>492</v>
+      <c r="C412" s="3" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="C413" s="1" t="s">
-        <v>493</v>
+      <c r="C413" s="3" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="C414" s="1" t="s">
-        <v>494</v>
+      <c r="C414" s="3" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="C415" s="1" t="s">
-        <v>495</v>
+      <c r="C415" s="3" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="C416" s="1" t="s">
-        <v>496</v>
+      <c r="C416" s="3" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="C417" s="1" t="s">
-        <v>497</v>
+      <c r="C417" s="3" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="C418" s="1" t="s">
-        <v>498</v>
+      <c r="C418" s="3" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="C419" s="1" t="s">
-        <v>499</v>
+      <c r="C419" s="3" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="C420" s="1" t="s">
-        <v>472</v>
+      <c r="C420" s="3" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="C421" s="1" t="s">
-        <v>500</v>
+      <c r="C421" s="3" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="C422" s="1" t="s">
-        <v>501</v>
-      </c>
+      <c r="C422" s="1"/>
     </row>
     <row r="423" ht="15.75" customHeight="1"/>
     <row r="424" ht="15.75" customHeight="1"/>
